--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsp/Documents/GitHub/cdfs-performance-rehearsal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655AF283-E914-7E43-8C53-EE54B14D90C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9AAB79-12F1-5249-90E5-0D410FBFD1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16180" yWindow="2120" windowWidth="23760" windowHeight="20560" activeTab="1" xr2:uid="{2F8600CA-3986-EE4C-91BB-F9BD073B8F74}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="103">
   <si>
     <t>class_name</t>
   </si>
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68AC5E-2942-7D46-915F-1C0B141C9C75}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59:G83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1483,9 +1483,6 @@
       <c r="F2" s="1">
         <v>0.36458333333333331</v>
       </c>
-      <c r="G2" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1506,9 +1503,6 @@
       <c r="F3" s="1">
         <v>0.36458333333333331</v>
       </c>
-      <c r="G3" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1529,9 +1523,6 @@
       <c r="F4" s="1">
         <v>0.375</v>
       </c>
-      <c r="G4" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1552,9 +1543,6 @@
       <c r="F5" s="1">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G5" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1575,9 +1563,6 @@
       <c r="F6" s="1">
         <v>0.40625</v>
       </c>
-      <c r="G6" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1595,9 +1580,6 @@
       <c r="E7" s="1">
         <v>0.44097222222222221</v>
       </c>
-      <c r="G7" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1735,9 +1717,6 @@
       <c r="E14" s="1">
         <v>0.4513888888888889</v>
       </c>
-      <c r="G14" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1755,9 +1734,6 @@
       <c r="E15" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G15" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1776,9 +1752,6 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1799,9 +1772,6 @@
       <c r="F17" s="1">
         <v>0.44791666666666669</v>
       </c>
-      <c r="G17" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1902,9 +1872,6 @@
       <c r="F22" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="G22" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1925,9 +1892,6 @@
       <c r="F23" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G23" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1945,9 +1909,6 @@
       <c r="E24" s="1">
         <v>0.50694444444444442</v>
       </c>
-      <c r="G24" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1964,9 +1925,6 @@
       </c>
       <c r="E25" s="1">
         <v>0.51736111111111116</v>
-      </c>
-      <c r="G25" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2625,9 +2583,6 @@
       <c r="E58" s="1">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G58" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -2645,9 +2600,6 @@
       <c r="E59" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G59" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -2665,9 +2617,6 @@
       <c r="E60" s="1">
         <v>0.4375</v>
       </c>
-      <c r="G60" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -2685,9 +2634,6 @@
       <c r="E61" s="1">
         <v>0.44791666666666669</v>
       </c>
-      <c r="G61" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -2705,9 +2651,6 @@
       <c r="E62" s="1">
         <v>0.46875</v>
       </c>
-      <c r="G62" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -2724,9 +2667,6 @@
       </c>
       <c r="E63" s="1">
         <v>0.47916666666666669</v>
-      </c>
-      <c r="G63" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsp/Documents/GitHub/cdfs-performance-rehearsal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9AAB79-12F1-5249-90E5-0D410FBFD1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCAF181-5BB1-254A-A2DC-3CFDBA2CF65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16180" yWindow="2120" windowWidth="23760" windowHeight="20560" activeTab="1" xr2:uid="{2F8600CA-3986-EE4C-91BB-F9BD073B8F74}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="106">
   <si>
     <t>class_name</t>
   </si>
@@ -346,6 +346,15 @@
   </si>
   <si>
     <t>Ballet 1, Ballet 3, and Ballet 4 dancers are released at 12:45 pm</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://www.cdandfs.com/may-3rd-ballet-rehearsal.html</t>
+  </si>
+  <si>
+    <t>https://www.cdandfs.com/tech-rehearsals.html</t>
   </si>
 </sst>
 </file>
@@ -1424,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68AC5E-2942-7D46-915F-1C0B141C9C75}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58:G63"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1441,7 +1450,7 @@
     <col min="7" max="7" width="59.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -1463,8 +1472,11 @@
       <c r="G1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -1483,8 +1495,11 @@
       <c r="F2" s="1">
         <v>0.36458333333333331</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -1503,8 +1518,11 @@
       <c r="F3" s="1">
         <v>0.36458333333333331</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -1523,8 +1541,11 @@
       <c r="F4" s="1">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1543,8 +1564,11 @@
       <c r="F5" s="1">
         <v>0.39583333333333331</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1563,8 +1587,11 @@
       <c r="F6" s="1">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -1580,8 +1607,11 @@
       <c r="E7" s="1">
         <v>0.44097222222222221</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -1600,8 +1630,11 @@
       <c r="G8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -1620,8 +1653,11 @@
       <c r="G9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -1640,8 +1676,11 @@
       <c r="G10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -1660,8 +1699,11 @@
       <c r="G11" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -1680,8 +1722,11 @@
       <c r="G12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -1700,8 +1745,11 @@
       <c r="G13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -1717,8 +1765,11 @@
       <c r="E14" s="1">
         <v>0.4513888888888889</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -1734,8 +1785,11 @@
       <c r="E15" s="1">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -1752,8 +1806,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -1772,8 +1829,11 @@
       <c r="F17" s="1">
         <v>0.44791666666666669</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -1792,8 +1852,11 @@
       <c r="G18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -1812,8 +1875,11 @@
       <c r="G19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -1832,8 +1898,11 @@
       <c r="G20" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -1852,8 +1921,11 @@
       <c r="G21" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -1872,8 +1944,11 @@
       <c r="F22" s="1">
         <v>0.48958333333333331</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -1892,8 +1967,11 @@
       <c r="F23" s="1">
         <v>0.47916666666666669</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -1909,8 +1987,11 @@
       <c r="E24" s="1">
         <v>0.50694444444444442</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -1926,8 +2007,11 @@
       <c r="E25" s="1">
         <v>0.51736111111111116</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -1946,8 +2030,11 @@
       <c r="G26" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -1966,8 +2053,11 @@
       <c r="G27" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -1986,8 +2076,11 @@
       <c r="G28" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -2006,8 +2099,11 @@
       <c r="G29" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -2026,8 +2122,11 @@
       <c r="G30" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -2046,8 +2145,11 @@
       <c r="G31" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -2066,8 +2168,11 @@
       <c r="G32" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -2086,8 +2191,11 @@
       <c r="G33" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -2106,8 +2214,11 @@
       <c r="G34" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -2126,8 +2237,11 @@
       <c r="G35" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -2146,8 +2260,11 @@
       <c r="G36" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -2166,8 +2283,11 @@
       <c r="G37" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -2186,8 +2306,11 @@
       <c r="G38" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -2206,8 +2329,11 @@
       <c r="G39" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -2226,8 +2352,11 @@
       <c r="G40" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -2246,8 +2375,11 @@
       <c r="G41" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -2266,8 +2398,11 @@
       <c r="G42" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -2286,8 +2421,11 @@
       <c r="G43" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -2306,8 +2444,11 @@
       <c r="G44" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -2326,8 +2467,11 @@
       <c r="G45" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -2346,8 +2490,11 @@
       <c r="G46" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2366,8 +2513,11 @@
       <c r="G47" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -2386,8 +2536,11 @@
       <c r="G48" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -2406,8 +2559,11 @@
       <c r="G49" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -2426,8 +2582,11 @@
       <c r="G50" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -2446,8 +2605,11 @@
       <c r="G51" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -2466,8 +2628,11 @@
       <c r="G52" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -2486,8 +2651,11 @@
       <c r="G53" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -2506,8 +2674,11 @@
       <c r="G54" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -2526,8 +2697,11 @@
       <c r="G55" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -2546,8 +2720,11 @@
       <c r="G56" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -2566,8 +2743,11 @@
       <c r="G57" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -2583,8 +2763,11 @@
       <c r="E58" s="1">
         <v>0.39583333333333331</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -2600,8 +2783,11 @@
       <c r="E59" s="1">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -2617,8 +2803,11 @@
       <c r="E60" s="1">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -2634,8 +2823,11 @@
       <c r="E61" s="1">
         <v>0.44791666666666669</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>101</v>
       </c>
@@ -2651,8 +2843,11 @@
       <c r="E62" s="1">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>101</v>
       </c>
@@ -2668,8 +2863,11 @@
       <c r="E63" s="1">
         <v>0.47916666666666669</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -2688,8 +2886,11 @@
       <c r="G64" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>101</v>
       </c>
@@ -2708,8 +2909,11 @@
       <c r="G65" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -2728,8 +2932,11 @@
       <c r="G66" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -2748,8 +2955,11 @@
       <c r="G67" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -2768,8 +2978,11 @@
       <c r="G68" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>101</v>
       </c>
@@ -2788,8 +3001,11 @@
       <c r="G69" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -2808,8 +3024,11 @@
       <c r="G70" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>101</v>
       </c>
@@ -2828,8 +3047,11 @@
       <c r="G71" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -2848,8 +3070,11 @@
       <c r="G72" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>101</v>
       </c>
@@ -2868,8 +3093,11 @@
       <c r="G73" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>101</v>
       </c>
@@ -2888,8 +3116,11 @@
       <c r="G74" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -2908,8 +3139,11 @@
       <c r="G75" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -2928,8 +3162,11 @@
       <c r="G76" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -2948,8 +3185,11 @@
       <c r="G77" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>101</v>
       </c>
@@ -2968,8 +3208,11 @@
       <c r="G78" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
@@ -2988,8 +3231,11 @@
       <c r="G79" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>101</v>
       </c>
@@ -3008,8 +3254,11 @@
       <c r="G80" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>101</v>
       </c>
@@ -3028,8 +3277,11 @@
       <c r="G81" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -3048,8 +3300,11 @@
       <c r="G82" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -3067,6 +3322,9 @@
       </c>
       <c r="G83" t="s">
         <v>102</v>
+      </c>
+      <c r="H83" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsp/Documents/GitHub/cdfs-performance-rehearsal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCAF181-5BB1-254A-A2DC-3CFDBA2CF65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010870BF-09C5-C745-A416-6840A13F752E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="2120" windowWidth="23760" windowHeight="20560" activeTab="1" xr2:uid="{2F8600CA-3986-EE4C-91BB-F9BD073B8F74}"/>
+    <workbookView xWindow="21600" yWindow="2120" windowWidth="18340" windowHeight="20560" activeTab="1" xr2:uid="{2F8600CA-3986-EE4C-91BB-F9BD073B8F74}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="119">
   <si>
     <t>class_name</t>
   </si>
@@ -355,16 +355,63 @@
   </si>
   <si>
     <t>https://www.cdandfs.com/tech-rehearsals.html</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Studio</t>
+  </si>
+  <si>
+    <t>Barre Opera House</t>
+  </si>
+  <si>
+    <t>Ballet 2 and Ballet 5 dancers are released at 3:15 pm</t>
+  </si>
+  <si>
+    <t>Pointe 3, Contemporary Ballet, and Ballet 6 dancers are released at 6:15 pm</t>
+  </si>
+  <si>
+    <t>Teen Jazz -- Blackbird</t>
+  </si>
+  <si>
+    <t>Dancers are released to the lobby for pictures after their rehearsal</t>
+  </si>
+  <si>
+    <t>Jazz 2/3</t>
+  </si>
+  <si>
+    <t>Fusion</t>
+  </si>
+  <si>
+    <t>Dress Rehearsal</t>
+  </si>
+  <si>
+    <t>Onstage warm-up for Ballet 4, 5, &amp; 6</t>
+  </si>
+  <si>
+    <t>https://www.cdandfs.com/dress-rehearsals.html</t>
+  </si>
+  <si>
+    <t>Dress Rehearsal: To the Stars: The Ballet Half</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -387,15 +434,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -728,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BBEBB3-3D05-3F4B-827E-9D2E3EA23827}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A37" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,12 +836,7 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.73958333333333337</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1424,6 +1469,34 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.76041666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -1433,24 +1506,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68AC5E-2942-7D46-915F-1C0B141C9C75}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="59.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -1458,1873 +1532,3654 @@
         <v>89</v>
       </c>
       <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>90</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>91</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>92</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="2">
         <v>45780</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>0.375</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.36458333333333331</v>
       </c>
-      <c r="H2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="2">
         <v>45780</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.36458333333333331</v>
       </c>
-      <c r="H3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="2">
         <v>45780</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.40625</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.375</v>
       </c>
-      <c r="H4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="2">
         <v>45780</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0.40625</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.41319444444444442</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.39583333333333331</v>
       </c>
-      <c r="H5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="2">
         <v>45780</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>0.41319444444444442</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.40625</v>
       </c>
-      <c r="H6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="2">
         <v>45780</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0.44097222222222221</v>
       </c>
-      <c r="H7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="2">
         <v>45780</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>0.43055555555555558</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>0.44097222222222221</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>95</v>
       </c>
-      <c r="H8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>93</v>
       </c>
       <c r="B9" s="2">
         <v>45780</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>0.43055555555555558</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0.44097222222222221</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>95</v>
       </c>
-      <c r="H9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="2">
         <v>45780</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>0.43055555555555558</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>0.44097222222222221</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>95</v>
       </c>
-      <c r="H10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>93</v>
       </c>
       <c r="B11" s="2">
         <v>45780</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>0.43055555555555558</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>0.44097222222222221</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>95</v>
       </c>
-      <c r="H11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="2">
         <v>45780</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>0.43055555555555558</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>0.44097222222222221</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>95</v>
       </c>
-      <c r="H12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>93</v>
       </c>
       <c r="B13" s="2">
         <v>45780</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>0.43055555555555558</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>0.44097222222222221</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>95</v>
       </c>
-      <c r="H13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>93</v>
       </c>
       <c r="B14" s="2">
         <v>45780</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>0.4375</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>93</v>
       </c>
       <c r="B15" s="2">
         <v>45780</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>0.4513888888888889</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="2">
         <v>45780</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>0.46527777777777779</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="H16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>93</v>
       </c>
       <c r="B17" s="2">
         <v>45780</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>0.46527777777777779</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>0.44791666666666669</v>
       </c>
-      <c r="H17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="2">
         <v>45780</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>0.46875</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>98</v>
       </c>
-      <c r="H18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>93</v>
       </c>
       <c r="B19" s="2">
         <v>45780</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>0.46875</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>98</v>
       </c>
-      <c r="H19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>93</v>
       </c>
       <c r="B20" s="2">
         <v>45780</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>0.46875</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>98</v>
       </c>
-      <c r="H20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>93</v>
       </c>
       <c r="B21" s="2">
         <v>45780</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>0.46875</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>98</v>
       </c>
-      <c r="H21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>93</v>
       </c>
       <c r="B22" s="2">
         <v>45780</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>0.47916666666666669</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.48958333333333331</v>
       </c>
       <c r="F22" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="H22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G22" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="I22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>93</v>
       </c>
       <c r="B23" s="2">
         <v>45780</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>0.5</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
       <c r="B24" s="2">
         <v>45780</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>0.5</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>0.50694444444444442</v>
       </c>
-      <c r="H24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>93</v>
       </c>
       <c r="B25" s="2">
         <v>45780</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>0.50694444444444442</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>0.51736111111111116</v>
       </c>
-      <c r="H25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="2">
         <v>45780</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>0.51736111111111116</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>0.52777777777777779</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>97</v>
       </c>
-      <c r="H26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="2">
         <v>45780</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>0.51736111111111116</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>0.52777777777777779</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>97</v>
       </c>
-      <c r="H27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>93</v>
       </c>
       <c r="B28" s="2">
         <v>45780</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>0.51736111111111116</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>0.52777777777777779</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>97</v>
       </c>
-      <c r="H28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>93</v>
       </c>
       <c r="B29" s="2">
         <v>45780</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>0.51736111111111116</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>0.52777777777777779</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>97</v>
       </c>
-      <c r="H29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>93</v>
       </c>
       <c r="B30" s="2">
         <v>45780</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>100</v>
       </c>
-      <c r="H30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>93</v>
       </c>
       <c r="B31" s="2">
         <v>45780</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>100</v>
       </c>
-      <c r="H31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>93</v>
       </c>
       <c r="B32" s="2">
         <v>45780</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>100</v>
       </c>
-      <c r="H32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>93</v>
       </c>
       <c r="B33" s="2">
         <v>45780</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>100</v>
       </c>
-      <c r="H33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>93</v>
       </c>
       <c r="B34" s="2">
         <v>45780</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>100</v>
       </c>
-      <c r="H34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>93</v>
       </c>
       <c r="B35" s="2">
         <v>45780</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>100</v>
       </c>
-      <c r="H35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>93</v>
       </c>
       <c r="B36" s="2">
         <v>45780</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>100</v>
       </c>
-      <c r="H36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>93</v>
       </c>
       <c r="B37" s="2">
         <v>45780</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>100</v>
       </c>
-      <c r="H37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>93</v>
       </c>
       <c r="B38" s="2">
         <v>45780</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>100</v>
       </c>
-      <c r="H38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="2">
         <v>45780</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>100</v>
       </c>
-      <c r="H39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>93</v>
       </c>
       <c r="B40" s="2">
         <v>45780</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>100</v>
       </c>
-      <c r="H40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>93</v>
       </c>
       <c r="B41" s="2">
         <v>45780</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>100</v>
       </c>
-      <c r="H41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>93</v>
       </c>
       <c r="B42" s="2">
         <v>45780</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>100</v>
       </c>
-      <c r="H42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>93</v>
       </c>
       <c r="B43" s="2">
         <v>45780</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>100</v>
       </c>
-      <c r="H43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>93</v>
       </c>
       <c r="B44" s="2">
         <v>45780</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>0.625</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>99</v>
       </c>
-      <c r="H44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="2">
         <v>45780</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>0.625</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>99</v>
       </c>
-      <c r="H45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>93</v>
       </c>
       <c r="B46" s="2">
         <v>45780</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>0.625</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>99</v>
       </c>
-      <c r="H46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>93</v>
       </c>
       <c r="B47" s="2">
         <v>45780</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>0.625</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>99</v>
       </c>
-      <c r="H47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>93</v>
       </c>
       <c r="B48" s="2">
         <v>45780</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>0.625</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>99</v>
       </c>
-      <c r="H48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>93</v>
       </c>
       <c r="B49" s="2">
         <v>45780</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="1">
+      <c r="E49" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>0.625</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>99</v>
       </c>
-      <c r="H49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>93</v>
       </c>
       <c r="B50" s="2">
         <v>45780</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>0.625</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>99</v>
       </c>
-      <c r="H50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
       <c r="B51" s="2">
         <v>45780</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="1">
+      <c r="E51" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>0.625</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>99</v>
       </c>
-      <c r="H51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>93</v>
       </c>
       <c r="B52" s="2">
         <v>45780</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
         <v>0.625</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>99</v>
       </c>
-      <c r="H52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>93</v>
       </c>
       <c r="B53" s="2">
         <v>45780</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>0.625</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>99</v>
       </c>
-      <c r="H53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>93</v>
       </c>
       <c r="B54" s="2">
         <v>45780</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>0.625</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>99</v>
       </c>
-      <c r="H54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>93</v>
       </c>
       <c r="B55" s="2">
         <v>45780</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="1">
+      <c r="E55" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="1">
         <v>0.625</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>99</v>
       </c>
-      <c r="H55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>93</v>
       </c>
       <c r="B56" s="2">
         <v>45780</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="1">
+      <c r="E56" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>0.625</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>99</v>
       </c>
-      <c r="H56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>93</v>
       </c>
       <c r="B57" s="2">
         <v>45780</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="1">
+      <c r="E57" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="1">
         <v>0.625</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>99</v>
       </c>
-      <c r="H57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>101</v>
       </c>
       <c r="B58" s="2">
         <v>45788</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="1">
+      <c r="E58" s="1">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>0.39583333333333331</v>
       </c>
-      <c r="H58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>101</v>
       </c>
       <c r="B59" s="2">
         <v>45788</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="1">
+      <c r="E59" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>101</v>
       </c>
       <c r="B60" s="2">
         <v>45788</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E60" s="1">
         <v>0.40625</v>
       </c>
-      <c r="E60" s="1">
+      <c r="F60" s="1">
         <v>0.4375</v>
       </c>
-      <c r="H60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>101</v>
       </c>
       <c r="B61" s="2">
         <v>45788</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>0.44791666666666669</v>
       </c>
-      <c r="H61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>101</v>
       </c>
       <c r="B62" s="2">
         <v>45788</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="1">
+      <c r="E62" s="1">
         <v>0.4375</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
         <v>0.46875</v>
       </c>
-      <c r="H62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>101</v>
       </c>
       <c r="B63" s="2">
         <v>45788</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E63" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E63" s="1">
+      <c r="F63" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>101</v>
       </c>
       <c r="B64" s="2">
         <v>45788</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E64" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="G64" t="s">
-        <v>102</v>
-      </c>
-      <c r="H64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>101</v>
       </c>
       <c r="B65" s="2">
         <v>45788</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="1">
+      <c r="E65" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="G65" t="s">
-        <v>102</v>
-      </c>
-      <c r="H65" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>101</v>
       </c>
       <c r="B66" s="2">
         <v>45788</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="1">
+      <c r="E66" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E66" s="1">
+      <c r="F66" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="G66" t="s">
-        <v>102</v>
-      </c>
-      <c r="H66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>101</v>
       </c>
       <c r="B67" s="2">
         <v>45788</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="1">
+      <c r="E67" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="G67" t="s">
-        <v>102</v>
-      </c>
-      <c r="H67" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>101</v>
       </c>
       <c r="B68" s="2">
         <v>45788</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="1">
+      <c r="E68" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="G68" t="s">
-        <v>102</v>
-      </c>
-      <c r="H68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>101</v>
       </c>
       <c r="B69" s="2">
         <v>45788</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="1">
+      <c r="E69" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="G69" t="s">
-        <v>102</v>
-      </c>
-      <c r="H69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>101</v>
       </c>
       <c r="B70" s="2">
         <v>45788</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="1">
+      <c r="E70" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E70" s="1">
+      <c r="F70" s="1">
         <v>0.53125</v>
       </c>
-      <c r="G70" t="s">
-        <v>102</v>
-      </c>
-      <c r="H70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>101</v>
       </c>
       <c r="B71" s="2">
         <v>45788</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="1">
+      <c r="E71" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E71" s="1">
+      <c r="F71" s="1">
         <v>0.53125</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>102</v>
       </c>
-      <c r="H71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>101</v>
       </c>
       <c r="B72" s="2">
         <v>45788</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="1">
+      <c r="E72" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E72" s="1">
+      <c r="F72" s="1">
         <v>0.53125</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>102</v>
       </c>
-      <c r="H72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>101</v>
       </c>
       <c r="B73" s="2">
         <v>45788</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="1">
+      <c r="E73" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E73" s="1">
+      <c r="F73" s="1">
         <v>0.53125</v>
       </c>
-      <c r="G73" t="s">
-        <v>102</v>
-      </c>
-      <c r="H73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="2">
         <v>45788</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="1">
+      <c r="E74" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E74" s="1">
+      <c r="F74" s="1">
         <v>0.53125</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>102</v>
       </c>
-      <c r="H74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>101</v>
       </c>
       <c r="B75" s="2">
         <v>45788</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E75" s="1">
+      <c r="F75" s="1">
         <v>0.53125</v>
       </c>
-      <c r="G75" t="s">
-        <v>102</v>
-      </c>
-      <c r="H75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>101</v>
       </c>
       <c r="B76" s="2">
         <v>45788</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="1">
+      <c r="E76" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E76" s="1">
+      <c r="F76" s="1">
         <v>0.53125</v>
       </c>
-      <c r="G76" t="s">
-        <v>102</v>
-      </c>
-      <c r="H76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>101</v>
       </c>
       <c r="B77" s="2">
         <v>45788</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" t="s">
         <v>80</v>
       </c>
-      <c r="D77" s="1">
+      <c r="E77" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E77" s="1">
+      <c r="F77" s="1">
         <v>0.53125</v>
       </c>
-      <c r="G77" t="s">
-        <v>102</v>
-      </c>
-      <c r="H77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>101</v>
       </c>
       <c r="B78" s="2">
         <v>45788</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="1">
         <v>0.53125</v>
       </c>
-      <c r="G78" t="s">
-        <v>102</v>
-      </c>
-      <c r="H78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
       <c r="B79" s="2">
         <v>45788</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="1">
+      <c r="E79" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E79" s="1">
+      <c r="F79" s="1">
         <v>0.53125</v>
       </c>
-      <c r="G79" t="s">
-        <v>102</v>
-      </c>
-      <c r="H79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>101</v>
       </c>
       <c r="B80" s="2">
         <v>45788</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="1">
-        <v>0.49305555555555558</v>
-      </c>
       <c r="E80" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="G80" t="s">
-        <v>102</v>
-      </c>
-      <c r="H80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>101</v>
       </c>
       <c r="B81" s="2">
         <v>45788</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="1">
-        <v>0.49305555555555558</v>
-      </c>
       <c r="E81" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="G81" t="s">
-        <v>102</v>
-      </c>
-      <c r="H81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.5625</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.59375</v>
+      </c>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>101</v>
       </c>
       <c r="B82" s="2">
         <v>45788</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" t="s">
         <v>78</v>
       </c>
-      <c r="D82" s="1">
-        <v>0.49305555555555558</v>
-      </c>
       <c r="E82" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="G82" t="s">
-        <v>102</v>
-      </c>
-      <c r="H82" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>101</v>
       </c>
       <c r="B83" s="2">
         <v>45788</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="1">
-        <v>0.49305555555555558</v>
-      </c>
       <c r="E83" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="G83" t="s">
-        <v>102</v>
-      </c>
-      <c r="H83" t="s">
-        <v>105</v>
+        <v>0.59375</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="I83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="H84" t="s">
+        <v>109</v>
+      </c>
+      <c r="I84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="I85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="I86" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="H87" t="s">
+        <v>109</v>
+      </c>
+      <c r="I87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="H88" t="s">
+        <v>110</v>
+      </c>
+      <c r="I88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" t="s">
+        <v>80</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H89" t="s">
+        <v>110</v>
+      </c>
+      <c r="I89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H90" t="s">
+        <v>110</v>
+      </c>
+      <c r="I90" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H91" t="s">
+        <v>110</v>
+      </c>
+      <c r="I91" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="H92" t="s">
+        <v>110</v>
+      </c>
+      <c r="I92" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D93" t="s">
+        <v>80</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="H93" t="s">
+        <v>110</v>
+      </c>
+      <c r="I93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="H94" t="s">
+        <v>110</v>
+      </c>
+      <c r="I94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="H95" t="s">
+        <v>110</v>
+      </c>
+      <c r="I95" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D96" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I96" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="I97" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I98" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="I99" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I100" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="2">
+        <v>45788</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="I101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2">
+        <v>45789</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102" t="s">
+        <v>43</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="H102" t="s">
+        <v>112</v>
+      </c>
+      <c r="I102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <v>45789</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D103" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H103" t="s">
+        <v>112</v>
+      </c>
+      <c r="I103" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104" s="2">
+        <v>45789</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H104" t="s">
+        <v>112</v>
+      </c>
+      <c r="I104" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="2">
+        <v>45789</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" t="s">
+        <v>47</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H105" t="s">
+        <v>112</v>
+      </c>
+      <c r="I105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>101</v>
+      </c>
+      <c r="B106" s="2">
+        <v>45789</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D106" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H106" t="s">
+        <v>112</v>
+      </c>
+      <c r="I106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="2">
+        <v>45789</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107" t="s">
+        <v>50</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H107" t="s">
+        <v>112</v>
+      </c>
+      <c r="I107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108" s="2">
+        <v>45789</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D108" t="s">
+        <v>51</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H108" t="s">
+        <v>112</v>
+      </c>
+      <c r="I108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109" s="2">
+        <v>45789</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D109" t="s">
+        <v>52</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H109" t="s">
+        <v>112</v>
+      </c>
+      <c r="I109" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>101</v>
+      </c>
+      <c r="B110" s="2">
+        <v>45789</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D110" t="s">
+        <v>53</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="H110" t="s">
+        <v>112</v>
+      </c>
+      <c r="I110" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>101</v>
+      </c>
+      <c r="B111" s="2">
+        <v>45789</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D111" t="s">
+        <v>54</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H111" t="s">
+        <v>112</v>
+      </c>
+      <c r="I111" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>101</v>
+      </c>
+      <c r="B112" s="2">
+        <v>45789</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D112" t="s">
+        <v>55</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H112" t="s">
+        <v>112</v>
+      </c>
+      <c r="I112" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113" s="2">
+        <v>45790</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D113" t="s">
+        <v>60</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="H113" t="s">
+        <v>112</v>
+      </c>
+      <c r="I113" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>101</v>
+      </c>
+      <c r="B114" s="2">
+        <v>45790</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" t="s">
+        <v>62</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H114" t="s">
+        <v>112</v>
+      </c>
+      <c r="I114" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>101</v>
+      </c>
+      <c r="B115" s="2">
+        <v>45790</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H115" t="s">
+        <v>112</v>
+      </c>
+      <c r="I115" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>101</v>
+      </c>
+      <c r="B116" s="2">
+        <v>45790</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D116" t="s">
+        <v>65</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H116" t="s">
+        <v>112</v>
+      </c>
+      <c r="I116" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>101</v>
+      </c>
+      <c r="B117" s="2">
+        <v>45790</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D117" t="s">
+        <v>66</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H117" t="s">
+        <v>112</v>
+      </c>
+      <c r="I117" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>101</v>
+      </c>
+      <c r="B118" s="2">
+        <v>45790</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="H118" t="s">
+        <v>112</v>
+      </c>
+      <c r="I118" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>101</v>
+      </c>
+      <c r="B119" s="2">
+        <v>45790</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D119" t="s">
+        <v>70</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H119" t="s">
+        <v>112</v>
+      </c>
+      <c r="I119" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>101</v>
+      </c>
+      <c r="B120" s="2">
+        <v>45790</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D120" t="s">
+        <v>113</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H120" t="s">
+        <v>112</v>
+      </c>
+      <c r="I120" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>101</v>
+      </c>
+      <c r="B121" s="2">
+        <v>45790</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D121" t="s">
+        <v>71</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="H121" t="s">
+        <v>112</v>
+      </c>
+      <c r="I121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>101</v>
+      </c>
+      <c r="B122" s="2">
+        <v>45790</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D122" t="s">
+        <v>72</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H122" t="s">
+        <v>112</v>
+      </c>
+      <c r="I122" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>101</v>
+      </c>
+      <c r="B123" s="2">
+        <v>45790</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D123" t="s">
+        <v>74</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H123" t="s">
+        <v>112</v>
+      </c>
+      <c r="I123" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>101</v>
+      </c>
+      <c r="B124" s="2">
+        <v>45791</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D124" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="H124" t="s">
+        <v>112</v>
+      </c>
+      <c r="I124" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>101</v>
+      </c>
+      <c r="B125" s="2">
+        <v>45791</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D125" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H125" t="s">
+        <v>112</v>
+      </c>
+      <c r="I125" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>101</v>
+      </c>
+      <c r="B126" s="2">
+        <v>45791</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D126" t="s">
+        <v>27</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H126" t="s">
+        <v>112</v>
+      </c>
+      <c r="I126" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>101</v>
+      </c>
+      <c r="B127" s="2">
+        <v>45791</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D127" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H127" t="s">
+        <v>112</v>
+      </c>
+      <c r="I127" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" s="2">
+        <v>45791</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D128" t="s">
+        <v>32</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H128" t="s">
+        <v>112</v>
+      </c>
+      <c r="I128" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>101</v>
+      </c>
+      <c r="B129" s="2">
+        <v>45791</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D129" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H129" t="s">
+        <v>112</v>
+      </c>
+      <c r="I129" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>101</v>
+      </c>
+      <c r="B130" s="2">
+        <v>45791</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D130" t="s">
+        <v>37</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H130" t="s">
+        <v>112</v>
+      </c>
+      <c r="I130" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>101</v>
+      </c>
+      <c r="B131" s="2">
+        <v>45791</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D131" t="s">
+        <v>40</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H131" t="s">
+        <v>112</v>
+      </c>
+      <c r="I131" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>101</v>
+      </c>
+      <c r="B132" s="2">
+        <v>45791</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D132" t="s">
+        <v>114</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="H132" t="s">
+        <v>112</v>
+      </c>
+      <c r="I132" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>101</v>
+      </c>
+      <c r="B133" s="2">
+        <v>45791</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H133" t="s">
+        <v>112</v>
+      </c>
+      <c r="I133" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>101</v>
+      </c>
+      <c r="B134" s="2">
+        <v>45791</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D134" t="s">
+        <v>42</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H134" t="s">
+        <v>112</v>
+      </c>
+      <c r="I134" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>115</v>
+      </c>
+      <c r="B135" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H135" t="s">
+        <v>116</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>115</v>
+      </c>
+      <c r="B136" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H136" t="s">
+        <v>116</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>115</v>
+      </c>
+      <c r="B137" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H137" t="s">
+        <v>116</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>115</v>
+      </c>
+      <c r="B138" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H138" t="s">
+        <v>118</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>115</v>
+      </c>
+      <c r="B139" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H139" t="s">
+        <v>118</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>115</v>
+      </c>
+      <c r="B140" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F140" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H140" t="s">
+        <v>118</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>115</v>
+      </c>
+      <c r="B141" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D141" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H141" t="s">
+        <v>118</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>115</v>
+      </c>
+      <c r="B142" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="H142" t="s">
+        <v>118</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>115</v>
+      </c>
+      <c r="B143" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="H143" t="s">
+        <v>118</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>115</v>
+      </c>
+      <c r="B144" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="H144" t="s">
+        <v>118</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3336,7 +5191,7 @@
           <x14:formula1>
             <xm:f>classes!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C83</xm:sqref>
+          <xm:sqref>D2:D134 D138:D141 D145:D370</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsp/Documents/GitHub/cdfs-performance-rehearsal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010870BF-09C5-C745-A416-6840A13F752E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA8DE57-E94E-ED40-8670-EB740D6A4089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21600" yWindow="2120" windowWidth="18340" windowHeight="20560" activeTab="1" xr2:uid="{2F8600CA-3986-EE4C-91BB-F9BD073B8F74}"/>
+    <workbookView xWindow="7360" yWindow="2120" windowWidth="32580" windowHeight="24460" activeTab="1" xr2:uid="{2F8600CA-3986-EE4C-91BB-F9BD073B8F74}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="119">
   <si>
     <t>class_name</t>
   </si>
@@ -90,24 +90,9 @@
     <t>Contemporary Ballet</t>
   </si>
   <si>
-    <t>Teen Jazz - Blackbird</t>
-  </si>
-  <si>
-    <t>Teen Jazz - Sweet Spot</t>
-  </si>
-  <si>
-    <t>Teen Jazz -- They Didn't Burn Witches</t>
-  </si>
-  <si>
     <t>Seniors</t>
   </si>
   <si>
-    <t>Teen Jazz -- Kaleidoscope</t>
-  </si>
-  <si>
-    <t>Teen Jazz -- Take My Hand</t>
-  </si>
-  <si>
     <t>Jr Jazz 3/4</t>
   </si>
   <si>
@@ -165,9 +150,6 @@
     <t>Monday</t>
   </si>
   <si>
-    <t>Teen Jazz -- Breathe</t>
-  </si>
-  <si>
     <t>Jr Modern 3/4</t>
   </si>
   <si>
@@ -189,21 +171,6 @@
     <t>Modern 3/4</t>
   </si>
   <si>
-    <t>Teen Jazz -- Tracy's Dance</t>
-  </si>
-  <si>
-    <t>Junior Company -- Fractals</t>
-  </si>
-  <si>
-    <t>Junior Company -- Chromatic Unity</t>
-  </si>
-  <si>
-    <t>Junior Company -- Dandy Lion</t>
-  </si>
-  <si>
-    <t>Junior Company -- AnnaMaria's Dance</t>
-  </si>
-  <si>
     <t>Contemporary</t>
   </si>
   <si>
@@ -252,9 +219,6 @@
     <t>Mixed Level Tap</t>
   </si>
   <si>
-    <t>Teen Jazz -- Resemblance</t>
-  </si>
-  <si>
     <t>Hip Hop 3/4</t>
   </si>
   <si>
@@ -372,9 +336,6 @@
     <t>Pointe 3, Contemporary Ballet, and Ballet 6 dancers are released at 6:15 pm</t>
   </si>
   <si>
-    <t>Teen Jazz -- Blackbird</t>
-  </si>
-  <si>
     <t>Dancers are released to the lobby for pictures after their rehearsal</t>
   </si>
   <si>
@@ -394,13 +355,52 @@
   </si>
   <si>
     <t>Dress Rehearsal: To the Stars: The Ballet Half</t>
+  </si>
+  <si>
+    <t>dance_name</t>
+  </si>
+  <si>
+    <t>Blackbird</t>
+  </si>
+  <si>
+    <t>Sweet Spot</t>
+  </si>
+  <si>
+    <t>They Didn't Burn itches</t>
+  </si>
+  <si>
+    <t>Kaleidoscope</t>
+  </si>
+  <si>
+    <t>Take My Hand</t>
+  </si>
+  <si>
+    <t>Tracy's Dance</t>
+  </si>
+  <si>
+    <t>Fractals</t>
+  </si>
+  <si>
+    <t>Chromatic Unity</t>
+  </si>
+  <si>
+    <t>Dandy Lion</t>
+  </si>
+  <si>
+    <t>AnnaMaria's Dance</t>
+  </si>
+  <si>
+    <t>Resemblance</t>
+  </si>
+  <si>
+    <t>Breathe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -414,6 +414,13 @@
       <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -438,11 +445,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -778,31 +786,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BBEBB3-3D05-3F4B-827E-9D2E3EA23827}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="5" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -818,7 +827,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -826,106 +835,135 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>57</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.71875</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.65625</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.65625</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1">
-        <v>0.71875</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1">
-        <v>0.65625</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1">
         <v>0.65625</v>
@@ -933,265 +971,316 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1">
-        <v>0.70833333333333337</v>
+        <v>0.69791666666666663</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="1">
-        <v>0.40625</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1">
-        <v>0.65625</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.8125</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1">
-        <v>0.65625</v>
+        <v>0.69791666666666663</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E23" s="1">
-        <v>0.69791666666666663</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E24" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E25" s="1">
-        <v>0.6875</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E26" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
         <v>57</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.8125</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.8125</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.44791666666666669</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E32" s="1">
-        <v>0.8125</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E33" s="1">
-        <v>0.72916666666666663</v>
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E34" s="1">
-        <v>0.69791666666666663</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1">
-        <v>0.6875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E36" s="1">
-        <v>0.65625</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E37" s="1">
         <v>0.65625</v>
@@ -1199,52 +1288,58 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="E38" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1">
-        <v>0.8125</v>
+        <v>0.82291666666666663</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.71875</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E41" s="1">
-        <v>0.8125</v>
+        <v>0.63541666666666663</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1252,251 +1347,70 @@
         <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E42" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="E43" s="1">
-        <v>0.39583333333333331</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.44791666666666669</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E45" s="1">
-        <v>0.4375</v>
+        <v>0.69791666666666663</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="E46" s="1">
-        <v>0.55208333333333337</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0.76041666666666663</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0.65625</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.65625</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0.82291666666666663</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0.71875</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0.63541666666666663</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0.76041666666666663</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0.69791666666666663</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0.76041666666666663</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1506,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68AC5E-2942-7D46-915F-1C0B141C9C75}">
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1517,3669 +1431,3714 @@
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="59.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2">
         <v>45780</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0.375</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.36458333333333331</v>
       </c>
-      <c r="I2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2">
         <v>45780</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.36458333333333331</v>
       </c>
-      <c r="I3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2">
         <v>45780</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.40625</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.375</v>
       </c>
-      <c r="I4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2">
         <v>45780</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.40625</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.41319444444444442</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.39583333333333331</v>
       </c>
-      <c r="I5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2">
         <v>45780</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0.41319444444444442</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.40625</v>
       </c>
-      <c r="I6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2">
         <v>45780</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.44097222222222221</v>
       </c>
-      <c r="I7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2">
         <v>45780</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>0.43055555555555558</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.44097222222222221</v>
       </c>
-      <c r="H8" t="s">
-        <v>95</v>
-      </c>
       <c r="I8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2">
         <v>45780</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0.43055555555555558</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.44097222222222221</v>
       </c>
-      <c r="H9" t="s">
-        <v>95</v>
-      </c>
       <c r="I9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2">
         <v>45780</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>0.43055555555555558</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.44097222222222221</v>
       </c>
-      <c r="H10" t="s">
-        <v>95</v>
-      </c>
       <c r="I10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2">
         <v>45780</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>0.43055555555555558</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>0.44097222222222221</v>
       </c>
-      <c r="H11" t="s">
-        <v>95</v>
-      </c>
       <c r="I11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="J11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2">
         <v>45780</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>0.43055555555555558</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>0.44097222222222221</v>
       </c>
-      <c r="H12" t="s">
-        <v>95</v>
-      </c>
       <c r="I12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="J12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2">
         <v>45780</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>0.43055555555555558</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>0.44097222222222221</v>
       </c>
-      <c r="H13" t="s">
-        <v>95</v>
-      </c>
       <c r="I13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2">
         <v>45780</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>0.4375</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>0.4513888888888889</v>
       </c>
-      <c r="I14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B15" s="2">
         <v>45780</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="1">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1">
         <v>0.4513888888888889</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2">
         <v>45780</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>0.46527777777777779</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="I16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H16" s="1"/>
+      <c r="J16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2">
         <v>45780</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>0.46527777777777779</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>0.44791666666666669</v>
       </c>
-      <c r="I17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B18" s="2">
         <v>45780</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>0.46875</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H18" t="s">
-        <v>98</v>
-      </c>
       <c r="I18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="J18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2">
         <v>45780</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="1">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.46875</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H19" t="s">
-        <v>98</v>
-      </c>
       <c r="I19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="J19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B20" s="2">
         <v>45780</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>0.46875</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H20" t="s">
-        <v>98</v>
-      </c>
       <c r="I20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="J20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B21" s="2">
         <v>45780</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>0.46875</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H21" t="s">
-        <v>98</v>
-      </c>
       <c r="I21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="J21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B22" s="2">
         <v>45780</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>0.47916666666666669</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.48958333333333331</v>
       </c>
       <c r="G22" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H22" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="J22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B23" s="2">
         <v>45780</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>0.5</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="I23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2">
         <v>45780</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="1">
+        <v>66</v>
+      </c>
+      <c r="F24" s="1">
         <v>0.5</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>0.50694444444444442</v>
       </c>
-      <c r="I24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B25" s="2">
         <v>45780</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>0.50694444444444442</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>0.51736111111111116</v>
       </c>
-      <c r="I25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2">
         <v>45780</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>0.51736111111111116</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>0.52777777777777779</v>
       </c>
-      <c r="H26" t="s">
-        <v>97</v>
-      </c>
       <c r="I26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="J26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B27" s="2">
         <v>45780</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>0.51736111111111116</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>0.52777777777777779</v>
       </c>
-      <c r="H27" t="s">
-        <v>97</v>
-      </c>
       <c r="I27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="J27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B28" s="2">
         <v>45780</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="1">
+        <v>66</v>
+      </c>
+      <c r="F28" s="1">
         <v>0.51736111111111116</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>0.52777777777777779</v>
       </c>
-      <c r="H28" t="s">
-        <v>97</v>
-      </c>
       <c r="I28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="J28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B29" s="2">
         <v>45780</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>0.51736111111111116</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>0.52777777777777779</v>
       </c>
-      <c r="H29" t="s">
-        <v>97</v>
-      </c>
       <c r="I29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="J29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2">
         <v>45780</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H30" t="s">
-        <v>100</v>
-      </c>
       <c r="I30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="J30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2">
         <v>45780</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H31" t="s">
-        <v>100</v>
-      </c>
       <c r="I31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="J31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2">
         <v>45780</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H32" t="s">
-        <v>100</v>
-      </c>
       <c r="I32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="J32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2">
         <v>45780</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H33" t="s">
-        <v>100</v>
-      </c>
       <c r="I33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="J33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2">
         <v>45780</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H34" t="s">
-        <v>100</v>
-      </c>
       <c r="I34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="J34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2">
         <v>45780</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H35" t="s">
-        <v>100</v>
-      </c>
       <c r="I35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="J35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2">
         <v>45780</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H36" t="s">
-        <v>100</v>
-      </c>
       <c r="I36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="J36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2">
         <v>45780</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="1">
+        <v>68</v>
+      </c>
+      <c r="F37" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H37" t="s">
-        <v>100</v>
-      </c>
       <c r="I37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="J37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2">
         <v>45780</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H38" t="s">
-        <v>100</v>
-      </c>
       <c r="I38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="J38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2">
         <v>45780</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H39" t="s">
-        <v>100</v>
-      </c>
       <c r="I39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="J39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2">
         <v>45780</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H40" t="s">
-        <v>100</v>
-      </c>
       <c r="I40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="J40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2">
         <v>45780</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H41" t="s">
-        <v>100</v>
-      </c>
       <c r="I41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="J41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2">
         <v>45780</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="1">
+        <v>66</v>
+      </c>
+      <c r="F42" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H42" t="s">
-        <v>100</v>
-      </c>
       <c r="I42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="J42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2">
         <v>45780</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H43" t="s">
-        <v>100</v>
-      </c>
       <c r="I43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="J43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2">
         <v>45780</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>0.625</v>
       </c>
-      <c r="H44" t="s">
-        <v>99</v>
-      </c>
       <c r="I44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="J44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2">
         <v>45780</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>0.625</v>
       </c>
-      <c r="H45" t="s">
-        <v>99</v>
-      </c>
       <c r="I45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="J45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2">
         <v>45780</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>0.625</v>
       </c>
-      <c r="H46" t="s">
-        <v>99</v>
-      </c>
       <c r="I46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="J46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2">
         <v>45780</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>0.625</v>
       </c>
-      <c r="H47" t="s">
-        <v>99</v>
-      </c>
       <c r="I47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="J47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2">
         <v>45780</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <v>0.625</v>
       </c>
-      <c r="H48" t="s">
-        <v>99</v>
-      </c>
       <c r="I48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="J48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2">
         <v>45780</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <v>0.625</v>
       </c>
-      <c r="H49" t="s">
-        <v>99</v>
-      </c>
       <c r="I49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="J49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2">
         <v>45780</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F50" s="1">
+      <c r="G50" s="1">
         <v>0.625</v>
       </c>
-      <c r="H50" t="s">
-        <v>99</v>
-      </c>
       <c r="I50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="J50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2">
         <v>45780</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="1">
+        <v>68</v>
+      </c>
+      <c r="F51" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <v>0.625</v>
       </c>
-      <c r="H51" t="s">
-        <v>99</v>
-      </c>
       <c r="I51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="J51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2">
         <v>45780</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F52" s="1">
+      <c r="G52" s="1">
         <v>0.625</v>
       </c>
-      <c r="H52" t="s">
-        <v>99</v>
-      </c>
       <c r="I52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="J52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2">
         <v>45780</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <v>0.625</v>
       </c>
-      <c r="H53" t="s">
-        <v>99</v>
-      </c>
       <c r="I53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="J53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2">
         <v>45780</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <v>0.625</v>
       </c>
-      <c r="H54" t="s">
-        <v>99</v>
-      </c>
       <c r="I54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="J54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2">
         <v>45780</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <v>0.625</v>
       </c>
-      <c r="H55" t="s">
-        <v>99</v>
-      </c>
       <c r="I55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="J55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2">
         <v>45780</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="1">
+        <v>66</v>
+      </c>
+      <c r="F56" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <v>0.625</v>
       </c>
-      <c r="H56" t="s">
-        <v>99</v>
-      </c>
       <c r="I56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="J56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2">
         <v>45780</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F57" s="1">
+      <c r="G57" s="1">
         <v>0.625</v>
       </c>
-      <c r="H57" t="s">
-        <v>99</v>
-      </c>
       <c r="I57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="J57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2">
         <v>45788</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>0.36458333333333331</v>
       </c>
-      <c r="F58" s="1">
+      <c r="G58" s="1">
         <v>0.39583333333333331</v>
       </c>
-      <c r="I58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2">
         <v>45788</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="F59" s="1">
+      <c r="G59" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2">
         <v>45788</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="1">
+      <c r="F60" s="1">
         <v>0.40625</v>
       </c>
-      <c r="F60" s="1">
+      <c r="G60" s="1">
         <v>0.4375</v>
       </c>
-      <c r="I60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2">
         <v>45788</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>0.44791666666666669</v>
       </c>
-      <c r="I61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2">
         <v>45788</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
         <v>0.4375</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <v>0.46875</v>
       </c>
-      <c r="I62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2">
         <v>45788</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="1">
+      <c r="F63" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G63" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="I63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2">
         <v>45788</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F64" s="1">
+      <c r="G64" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2">
         <v>45788</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F65" s="1">
+      <c r="G65" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I65" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2">
         <v>45788</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="1">
+      <c r="F66" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F66" s="1">
+      <c r="G66" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2">
         <v>45788</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F67" s="1">
+      <c r="G67" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I67" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2">
         <v>45788</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F68" s="1">
+      <c r="G68" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2">
         <v>45788</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F69" s="1">
+      <c r="G69" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2">
         <v>45788</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="1">
+      <c r="F70" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="F70" s="1">
+      <c r="G70" s="1">
         <v>0.53125</v>
       </c>
-      <c r="I70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2">
         <v>45788</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D71" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="1">
+      <c r="F71" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="F71" s="1">
+      <c r="G71" s="1">
         <v>0.53125</v>
       </c>
-      <c r="H71" t="s">
-        <v>102</v>
-      </c>
       <c r="I71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="J71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2">
         <v>45788</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
       </c>
-      <c r="E72" s="1">
+      <c r="F72" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="F72" s="1">
+      <c r="G72" s="1">
         <v>0.53125</v>
       </c>
-      <c r="H72" t="s">
-        <v>102</v>
-      </c>
       <c r="I72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="J72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2">
         <v>45788</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="1">
+      <c r="F73" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="F73" s="1">
+      <c r="G73" s="1">
         <v>0.53125</v>
       </c>
-      <c r="I73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2">
         <v>45788</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="1">
+      <c r="F74" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="F74" s="1">
+      <c r="G74" s="1">
         <v>0.53125</v>
       </c>
-      <c r="H74" t="s">
-        <v>102</v>
-      </c>
       <c r="I74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="J74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2">
         <v>45788</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="1">
+      <c r="F75" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="F75" s="1">
+      <c r="G75" s="1">
         <v>0.53125</v>
       </c>
-      <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2">
         <v>45788</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
       </c>
-      <c r="E76" s="1">
+      <c r="F76" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="F76" s="1">
+      <c r="G76" s="1">
         <v>0.53125</v>
       </c>
-      <c r="I76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2">
         <v>45788</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>80</v>
-      </c>
-      <c r="E77" s="1">
+        <v>68</v>
+      </c>
+      <c r="F77" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="F77" s="1">
+      <c r="G77" s="1">
         <v>0.53125</v>
       </c>
-      <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2">
         <v>45788</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="F78" s="1">
+      <c r="G78" s="1">
         <v>0.53125</v>
       </c>
-      <c r="I78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2">
         <v>45788</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
       </c>
-      <c r="E79" s="1">
+      <c r="F79" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="F79" s="1">
+      <c r="G79" s="1">
         <v>0.53125</v>
       </c>
-      <c r="I79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2">
         <v>45788</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="1">
+      <c r="F80" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F80" s="1">
+      <c r="G80" s="1">
         <v>0.57291666666666663</v>
       </c>
-      <c r="I80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2">
         <v>45788</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D81" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="1">
+      <c r="F81" s="1">
         <v>0.5625</v>
       </c>
-      <c r="F81" s="1">
+      <c r="G81" s="1">
         <v>0.59375</v>
       </c>
-      <c r="I81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2">
         <v>45788</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D82" t="s">
-        <v>78</v>
-      </c>
-      <c r="E82" s="1">
+        <v>66</v>
+      </c>
+      <c r="F82" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F82" s="1">
+      <c r="G82" s="1">
         <v>0.60416666666666663</v>
       </c>
-      <c r="I82" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2">
         <v>45788</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="1">
+      <c r="F83" s="1">
         <v>0.59375</v>
       </c>
-      <c r="F83" s="1">
+      <c r="G83" s="1">
         <v>0.625</v>
       </c>
-      <c r="I83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2">
         <v>45788</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="1">
+      <c r="F84" s="1">
         <v>0.625</v>
       </c>
-      <c r="F84" s="1">
+      <c r="G84" s="1">
         <v>0.63541666666666663</v>
       </c>
-      <c r="H84" t="s">
-        <v>109</v>
-      </c>
       <c r="I84" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="J84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2">
         <v>45788</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D85" t="s">
         <v>11</v>
       </c>
-      <c r="E85" s="1">
+      <c r="F85" s="1">
         <v>0.625</v>
       </c>
-      <c r="F85" s="1">
+      <c r="G85" s="1">
         <v>0.63541666666666663</v>
       </c>
-      <c r="I85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2">
         <v>45788</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>78</v>
-      </c>
-      <c r="E86" s="1">
+        <v>66</v>
+      </c>
+      <c r="F86" s="1">
         <v>0.625</v>
       </c>
-      <c r="F86" s="1">
+      <c r="G86" s="1">
         <v>0.63541666666666663</v>
       </c>
-      <c r="I86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2">
         <v>45788</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="1">
+      <c r="F87" s="1">
         <v>0.625</v>
       </c>
-      <c r="F87" s="1">
+      <c r="G87" s="1">
         <v>0.63541666666666663</v>
       </c>
-      <c r="H87" t="s">
-        <v>109</v>
-      </c>
       <c r="I87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="J87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2">
         <v>45788</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
       </c>
-      <c r="E88" s="1">
+      <c r="F88" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F88" s="1">
+      <c r="G88" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="H88" t="s">
-        <v>110</v>
-      </c>
       <c r="I88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="J88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2">
         <v>45788</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D89" t="s">
-        <v>80</v>
-      </c>
-      <c r="E89" s="1">
+        <v>68</v>
+      </c>
+      <c r="F89" s="1">
         <v>0.6875</v>
       </c>
-      <c r="F89" s="1">
+      <c r="G89" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H89" t="s">
-        <v>110</v>
-      </c>
       <c r="I89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="J89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>45788</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D90" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="1">
+      <c r="F90" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F90" s="1">
+      <c r="G90" s="1">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H90" t="s">
-        <v>110</v>
-      </c>
       <c r="I90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="J90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2">
         <v>45788</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D91" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="1">
+      <c r="F91" s="1">
         <v>0.71875</v>
       </c>
-      <c r="F91" s="1">
+      <c r="G91" s="1">
         <v>0.75</v>
       </c>
-      <c r="H91" t="s">
-        <v>110</v>
-      </c>
       <c r="I91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="J91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2">
         <v>45788</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
       </c>
-      <c r="E92" s="1">
+      <c r="F92" s="1">
         <v>0.75</v>
       </c>
-      <c r="F92" s="1">
+      <c r="G92" s="1">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H92" t="s">
-        <v>110</v>
-      </c>
       <c r="I92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="J92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2">
         <v>45788</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>80</v>
-      </c>
-      <c r="E93" s="1">
+        <v>68</v>
+      </c>
+      <c r="F93" s="1">
         <v>0.75</v>
       </c>
-      <c r="F93" s="1">
+      <c r="G93" s="1">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H93" t="s">
-        <v>110</v>
-      </c>
       <c r="I93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="J93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2">
         <v>45788</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
       </c>
-      <c r="E94" s="1">
+      <c r="F94" s="1">
         <v>0.75</v>
       </c>
-      <c r="F94" s="1">
+      <c r="G94" s="1">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H94" t="s">
-        <v>110</v>
-      </c>
       <c r="I94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="J94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2">
         <v>45788</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
       </c>
-      <c r="E95" s="1">
+      <c r="F95" s="1">
         <v>0.75</v>
       </c>
-      <c r="F95" s="1">
+      <c r="G95" s="1">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H95" t="s">
-        <v>110</v>
-      </c>
       <c r="I95" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="J95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2">
         <v>45788</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D96" t="s">
-        <v>111</v>
-      </c>
-      <c r="E96" s="1">
+        <v>46</v>
+      </c>
+      <c r="E96" t="s">
+        <v>107</v>
+      </c>
+      <c r="F96" s="1">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F96" s="1">
+      <c r="G96" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="I96" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2">
         <v>45788</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D97" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" t="s">
         <v>108</v>
       </c>
-      <c r="D97" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" s="1">
+      <c r="F97" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F97" s="1">
+      <c r="G97" s="1">
         <v>0.8125</v>
       </c>
-      <c r="I97" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2">
         <v>45788</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="1">
+        <v>46</v>
+      </c>
+      <c r="E98" t="s">
+        <v>109</v>
+      </c>
+      <c r="F98" s="1">
         <v>0.8125</v>
       </c>
-      <c r="F98" s="1">
+      <c r="G98" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="I98" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2">
         <v>45788</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D99" t="s">
-        <v>20</v>
-      </c>
-      <c r="E99" s="1">
+        <v>17</v>
+      </c>
+      <c r="F99" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F99" s="1">
+      <c r="G99" s="1">
         <v>0.85416666666666663</v>
       </c>
-      <c r="I99" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2">
         <v>45788</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D100" t="s">
-        <v>21</v>
-      </c>
-      <c r="E100" s="1">
+        <v>46</v>
+      </c>
+      <c r="E100" t="s">
+        <v>110</v>
+      </c>
+      <c r="F100" s="1">
         <v>0.85416666666666663</v>
       </c>
-      <c r="F100" s="1">
+      <c r="G100" s="1">
         <v>0.875</v>
       </c>
-      <c r="I100" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2">
         <v>45788</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D101" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" s="1">
+        <v>46</v>
+      </c>
+      <c r="E101" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101" s="1">
         <v>0.875</v>
       </c>
-      <c r="F101" s="1">
+      <c r="G101" s="1">
         <v>0.89583333333333337</v>
       </c>
-      <c r="I101" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B102" s="2">
         <v>45789</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D102" t="s">
-        <v>43</v>
-      </c>
-      <c r="E102" s="1">
+        <v>37</v>
+      </c>
+      <c r="F102" s="1">
         <v>0.65625</v>
       </c>
-      <c r="F102" s="1">
+      <c r="G102" s="1">
         <v>0.6875</v>
       </c>
-      <c r="H102" t="s">
-        <v>112</v>
-      </c>
       <c r="I102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J102" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2">
         <v>45789</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D103" t="s">
-        <v>45</v>
-      </c>
-      <c r="E103" s="1">
+        <v>39</v>
+      </c>
+      <c r="F103" s="1">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F103" s="1">
+      <c r="G103" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H103" t="s">
-        <v>112</v>
-      </c>
       <c r="I103" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J103" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B104" s="2">
         <v>45789</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D104" t="s">
-        <v>46</v>
-      </c>
-      <c r="E104" s="1">
+        <v>40</v>
+      </c>
+      <c r="F104" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F104" s="1">
+      <c r="G104" s="1">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H104" t="s">
-        <v>112</v>
-      </c>
       <c r="I104" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J104" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B105" s="2">
         <v>45789</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D105" t="s">
-        <v>47</v>
-      </c>
-      <c r="E105" s="1">
+        <v>41</v>
+      </c>
+      <c r="F105" s="1">
         <v>0.71875</v>
       </c>
-      <c r="F105" s="1">
+      <c r="G105" s="1">
         <v>0.75</v>
       </c>
-      <c r="H105" t="s">
-        <v>112</v>
-      </c>
       <c r="I105" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B106" s="2">
         <v>45789</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D106" t="s">
-        <v>49</v>
-      </c>
-      <c r="E106" s="1">
+        <v>43</v>
+      </c>
+      <c r="F106" s="1">
         <v>0.73958333333333337</v>
       </c>
-      <c r="F106" s="1">
+      <c r="G106" s="1">
         <v>0.77083333333333337</v>
       </c>
-      <c r="H106" t="s">
-        <v>112</v>
-      </c>
       <c r="I106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J106" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B107" s="2">
         <v>45789</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D107" t="s">
-        <v>50</v>
-      </c>
-      <c r="E107" s="1">
+        <v>46</v>
+      </c>
+      <c r="E107" t="s">
+        <v>112</v>
+      </c>
+      <c r="F107" s="1">
         <v>0.76041666666666663</v>
       </c>
-      <c r="F107" s="1">
+      <c r="G107" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H107" t="s">
-        <v>112</v>
-      </c>
       <c r="I107" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J107" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B108" s="2">
         <v>45789</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D108" t="s">
-        <v>51</v>
-      </c>
-      <c r="E108" s="1">
+        <v>47</v>
+      </c>
+      <c r="E108" t="s">
+        <v>113</v>
+      </c>
+      <c r="F108" s="1">
         <v>0.80555555555555558</v>
       </c>
-      <c r="F108" s="1">
+      <c r="G108" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="H108" t="s">
-        <v>112</v>
-      </c>
       <c r="I108" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J108" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B109" s="2">
         <v>45789</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D109" t="s">
-        <v>52</v>
-      </c>
-      <c r="E109" s="1">
+        <v>47</v>
+      </c>
+      <c r="E109" t="s">
+        <v>114</v>
+      </c>
+      <c r="F109" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F109" s="1">
+      <c r="G109" s="1">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H109" t="s">
-        <v>112</v>
-      </c>
       <c r="I109" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J109" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B110" s="2">
         <v>45789</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D110" t="s">
-        <v>53</v>
-      </c>
-      <c r="E110" s="1">
+        <v>47</v>
+      </c>
+      <c r="E110" t="s">
+        <v>115</v>
+      </c>
+      <c r="F110" s="1">
         <v>0.85416666666666663</v>
       </c>
-      <c r="F110" s="1">
+      <c r="G110" s="1">
         <v>0.875</v>
       </c>
-      <c r="H110" t="s">
-        <v>112</v>
-      </c>
       <c r="I110" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J110" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B111" s="2">
         <v>45789</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D111" t="s">
-        <v>54</v>
-      </c>
-      <c r="E111" s="1">
+        <v>47</v>
+      </c>
+      <c r="E111" t="s">
+        <v>116</v>
+      </c>
+      <c r="F111" s="1">
         <v>0.875</v>
       </c>
-      <c r="F111" s="1">
+      <c r="G111" s="1">
         <v>0.89583333333333337</v>
       </c>
-      <c r="H111" t="s">
-        <v>112</v>
-      </c>
       <c r="I111" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J111" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B112" s="2">
         <v>45789</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D112" t="s">
-        <v>55</v>
-      </c>
-      <c r="E112" s="1">
+        <v>44</v>
+      </c>
+      <c r="F112" s="1">
         <v>0.88541666666666663</v>
       </c>
-      <c r="F112" s="1">
+      <c r="G112" s="1">
         <v>0.91666666666666663</v>
       </c>
-      <c r="H112" t="s">
-        <v>112</v>
-      </c>
       <c r="I112" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J112" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B113" s="2">
         <v>45790</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D113" t="s">
-        <v>60</v>
-      </c>
-      <c r="E113" s="1">
+        <v>49</v>
+      </c>
+      <c r="F113" s="1">
         <v>0.65625</v>
       </c>
-      <c r="F113" s="1">
+      <c r="G113" s="1">
         <v>0.6875</v>
       </c>
-      <c r="H113" t="s">
-        <v>112</v>
-      </c>
       <c r="I113" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J113" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B114" s="2">
         <v>45790</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D114" t="s">
-        <v>62</v>
-      </c>
-      <c r="E114" s="1">
+        <v>51</v>
+      </c>
+      <c r="F114" s="1">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F114" s="1">
+      <c r="G114" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H114" t="s">
-        <v>112</v>
-      </c>
       <c r="I114" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J114" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B115" s="2">
         <v>45790</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D115" t="s">
-        <v>64</v>
-      </c>
-      <c r="E115" s="1">
+        <v>53</v>
+      </c>
+      <c r="F115" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F115" s="1">
+      <c r="G115" s="1">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H115" t="s">
-        <v>112</v>
-      </c>
       <c r="I115" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J115" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B116" s="2">
         <v>45790</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D116" t="s">
-        <v>65</v>
-      </c>
-      <c r="E116" s="1">
+        <v>54</v>
+      </c>
+      <c r="F116" s="1">
         <v>0.71875</v>
       </c>
-      <c r="F116" s="1">
+      <c r="G116" s="1">
         <v>0.75</v>
       </c>
-      <c r="H116" t="s">
-        <v>112</v>
-      </c>
       <c r="I116" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J116" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B117" s="2">
         <v>45790</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D117" t="s">
-        <v>66</v>
-      </c>
-      <c r="E117" s="1">
+        <v>55</v>
+      </c>
+      <c r="F117" s="1">
         <v>0.76041666666666663</v>
       </c>
-      <c r="F117" s="1">
+      <c r="G117" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H117" t="s">
-        <v>112</v>
-      </c>
       <c r="I117" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J117" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B118" s="2">
         <v>45790</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D118" t="s">
-        <v>69</v>
-      </c>
-      <c r="E118" s="1">
+        <v>58</v>
+      </c>
+      <c r="F118" s="1">
         <v>0.78125</v>
       </c>
-      <c r="F118" s="1">
+      <c r="G118" s="1">
         <v>0.8125</v>
       </c>
-      <c r="H118" t="s">
-        <v>112</v>
-      </c>
       <c r="I118" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J118" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B119" s="2">
         <v>45790</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D119" t="s">
-        <v>70</v>
-      </c>
-      <c r="E119" s="1">
+        <v>59</v>
+      </c>
+      <c r="F119" s="1">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F119" s="1">
+      <c r="G119" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="H119" t="s">
-        <v>112</v>
-      </c>
       <c r="I119" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J119" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B120" s="2">
         <v>45790</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D120" t="s">
-        <v>113</v>
-      </c>
-      <c r="E120" s="1">
+        <v>100</v>
+      </c>
+      <c r="F120" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="F120" s="1">
+      <c r="G120" s="1">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H120" t="s">
-        <v>112</v>
-      </c>
       <c r="I120" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J120" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B121" s="2">
         <v>45790</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D121" t="s">
-        <v>71</v>
-      </c>
-      <c r="E121" s="1">
+        <v>46</v>
+      </c>
+      <c r="E121" t="s">
+        <v>117</v>
+      </c>
+      <c r="F121" s="1">
         <v>0.84375</v>
       </c>
-      <c r="F121" s="1">
+      <c r="G121" s="1">
         <v>0.875</v>
       </c>
-      <c r="H121" t="s">
-        <v>112</v>
-      </c>
       <c r="I121" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J121" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B122" s="2">
         <v>45790</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D122" t="s">
-        <v>72</v>
-      </c>
-      <c r="E122" s="1">
+        <v>60</v>
+      </c>
+      <c r="F122" s="1">
         <v>0.86458333333333337</v>
       </c>
-      <c r="F122" s="1">
+      <c r="G122" s="1">
         <v>0.89583333333333337</v>
       </c>
-      <c r="H122" t="s">
-        <v>112</v>
-      </c>
       <c r="I122" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J122" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B123" s="2">
         <v>45790</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D123" t="s">
-        <v>74</v>
-      </c>
-      <c r="E123" s="1">
+        <v>62</v>
+      </c>
+      <c r="F123" s="1">
         <v>0.88541666666666663</v>
       </c>
-      <c r="F123" s="1">
+      <c r="G123" s="1">
         <v>0.91666666666666663</v>
       </c>
-      <c r="H123" t="s">
-        <v>112</v>
-      </c>
       <c r="I123" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J123" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B124" s="2">
         <v>45791</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D124" t="s">
-        <v>23</v>
-      </c>
-      <c r="E124" s="1">
+        <v>18</v>
+      </c>
+      <c r="F124" s="1">
         <v>0.65625</v>
       </c>
-      <c r="F124" s="1">
+      <c r="G124" s="1">
         <v>0.6875</v>
       </c>
-      <c r="H124" t="s">
-        <v>112</v>
-      </c>
       <c r="I124" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J124" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B125" s="2">
         <v>45791</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D125" t="s">
-        <v>26</v>
-      </c>
-      <c r="E125" s="1">
+        <v>21</v>
+      </c>
+      <c r="F125" s="1">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F125" s="1">
+      <c r="G125" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H125" t="s">
-        <v>112</v>
-      </c>
       <c r="I125" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J125" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B126" s="2">
         <v>45791</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D126" t="s">
-        <v>27</v>
-      </c>
-      <c r="E126" s="1">
+        <v>22</v>
+      </c>
+      <c r="F126" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F126" s="1">
+      <c r="G126" s="1">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H126" t="s">
-        <v>112</v>
-      </c>
       <c r="I126" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J126" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B127" s="2">
         <v>45791</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D127" t="s">
-        <v>29</v>
-      </c>
-      <c r="E127" s="1">
+        <v>24</v>
+      </c>
+      <c r="F127" s="1">
         <v>0.71875</v>
       </c>
-      <c r="F127" s="1">
+      <c r="G127" s="1">
         <v>0.75</v>
       </c>
-      <c r="H127" t="s">
-        <v>112</v>
-      </c>
       <c r="I127" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J127" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B128" s="2">
         <v>45791</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D128" t="s">
-        <v>32</v>
-      </c>
-      <c r="E128" s="1">
+        <v>27</v>
+      </c>
+      <c r="F128" s="1">
         <v>0.73958333333333337</v>
       </c>
-      <c r="F128" s="1">
+      <c r="G128" s="1">
         <v>0.77083333333333337</v>
       </c>
-      <c r="H128" t="s">
-        <v>112</v>
-      </c>
       <c r="I128" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J128" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B129" s="2">
         <v>45791</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D129" t="s">
-        <v>34</v>
-      </c>
-      <c r="E129" s="1">
+        <v>29</v>
+      </c>
+      <c r="F129" s="1">
         <v>0.76041666666666663</v>
       </c>
-      <c r="F129" s="1">
+      <c r="G129" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H129" t="s">
-        <v>112</v>
-      </c>
       <c r="I129" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J129" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B130" s="2">
         <v>45791</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D130" t="s">
-        <v>37</v>
-      </c>
-      <c r="E130" s="1">
+        <v>32</v>
+      </c>
+      <c r="F130" s="1">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F130" s="1">
+      <c r="G130" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="H130" t="s">
-        <v>112</v>
-      </c>
       <c r="I130" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J130" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B131" s="2">
         <v>45791</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D131" t="s">
-        <v>40</v>
-      </c>
-      <c r="E131" s="1">
+        <v>35</v>
+      </c>
+      <c r="F131" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="F131" s="1">
+      <c r="G131" s="1">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H131" t="s">
-        <v>112</v>
-      </c>
       <c r="I131" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J131" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B132" s="2">
         <v>45791</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D132" t="s">
-        <v>114</v>
-      </c>
-      <c r="E132" s="1">
+        <v>101</v>
+      </c>
+      <c r="F132" s="1">
         <v>0.84375</v>
       </c>
-      <c r="F132" s="1">
+      <c r="G132" s="1">
         <v>0.875</v>
       </c>
-      <c r="H132" t="s">
-        <v>112</v>
-      </c>
       <c r="I132" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J132" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B133" s="2">
         <v>45791</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D133" t="s">
-        <v>59</v>
-      </c>
-      <c r="E133" s="1">
+        <v>48</v>
+      </c>
+      <c r="F133" s="1">
         <v>0.86458333333333337</v>
       </c>
-      <c r="F133" s="1">
+      <c r="G133" s="1">
         <v>0.89583333333333337</v>
       </c>
-      <c r="H133" t="s">
-        <v>112</v>
-      </c>
       <c r="I133" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J133" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B134" s="2">
         <v>45791</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D134" t="s">
-        <v>42</v>
-      </c>
-      <c r="E134" s="1">
+        <v>46</v>
+      </c>
+      <c r="E134" t="s">
+        <v>118</v>
+      </c>
+      <c r="F134" s="1">
         <v>0.89583333333333337</v>
       </c>
-      <c r="F134" s="1">
+      <c r="G134" s="1">
         <v>0.91666666666666663</v>
       </c>
-      <c r="H134" t="s">
-        <v>112</v>
-      </c>
       <c r="I134" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J134" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B135" s="2">
         <v>45792</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="2"/>
+      <c r="F135" s="1">
         <v>0.65625</v>
       </c>
-      <c r="F135" s="1">
+      <c r="G135" s="1">
         <v>0.6875</v>
       </c>
-      <c r="G135" s="1">
+      <c r="H135" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="H135" t="s">
-        <v>116</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I135" t="s">
+        <v>103</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B136" s="2">
         <v>45792</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="2"/>
+      <c r="F136" s="1">
         <v>0.65625</v>
       </c>
-      <c r="F136" s="1">
+      <c r="G136" s="1">
         <v>0.6875</v>
       </c>
-      <c r="G136" s="1">
+      <c r="H136" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="H136" t="s">
-        <v>116</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I136" t="s">
+        <v>103</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B137" s="2">
         <v>45792</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="2"/>
+      <c r="F137" s="1">
         <v>0.65625</v>
       </c>
-      <c r="F137" s="1">
+      <c r="G137" s="1">
         <v>0.6875</v>
       </c>
-      <c r="G137" s="1">
+      <c r="H137" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="H137" t="s">
-        <v>116</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I137" t="s">
+        <v>103</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B138" s="2">
         <v>45792</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D138" t="s">
         <v>4</v>
       </c>
-      <c r="E138" s="1">
+      <c r="F138" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F138" s="1">
+      <c r="G138" s="1">
         <v>0.73958333333333337</v>
       </c>
-      <c r="G138" s="1">
+      <c r="H138" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H138" t="s">
-        <v>118</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I138" t="s">
+        <v>105</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B139" s="2">
         <v>45792</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D139" t="s">
         <v>10</v>
       </c>
-      <c r="E139" s="1">
+      <c r="F139" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F139" s="1">
+      <c r="G139" s="1">
         <v>0.73958333333333337</v>
       </c>
-      <c r="G139" s="1">
+      <c r="H139" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H139" t="s">
-        <v>118</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I139" t="s">
+        <v>105</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B140" s="2">
         <v>45792</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D140" t="s">
         <v>6</v>
       </c>
-      <c r="E140" s="1">
+      <c r="F140" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F140" s="1">
+      <c r="G140" s="1">
         <v>0.73958333333333337</v>
       </c>
-      <c r="G140" s="1">
+      <c r="H140" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H140" t="s">
-        <v>118</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I140" t="s">
+        <v>105</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B141" s="2">
         <v>45792</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D141" t="s">
         <v>16</v>
       </c>
-      <c r="E141" s="1">
+      <c r="F141" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F141" s="1">
+      <c r="G141" s="1">
         <v>0.73958333333333337</v>
       </c>
-      <c r="G141" s="1">
+      <c r="H141" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H141" t="s">
-        <v>118</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I141" t="s">
+        <v>105</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B142" s="2">
         <v>45792</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142" s="2"/>
+      <c r="F142" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F142" s="1">
+      <c r="G142" s="1">
         <v>0.73958333333333337</v>
       </c>
-      <c r="H142" t="s">
-        <v>118</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I142" t="s">
+        <v>105</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B143" s="2">
         <v>45792</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="2"/>
+      <c r="F143" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F143" s="1">
+      <c r="G143" s="1">
         <v>0.73958333333333337</v>
       </c>
-      <c r="H143" t="s">
-        <v>118</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I143" t="s">
+        <v>105</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B144" s="2">
         <v>45792</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="2"/>
+      <c r="F144" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F144" s="1">
+      <c r="G144" s="1">
         <v>0.73958333333333337</v>
       </c>
-      <c r="H144" t="s">
-        <v>118</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>117</v>
+      <c r="I144" t="s">
+        <v>105</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5191,7 +5150,7 @@
           <x14:formula1>
             <xm:f>classes!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D134 D138:D141 D145:D370</xm:sqref>
+          <xm:sqref>D138:D141 D145:D370 D2:D134</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsp/Documents/GitHub/cdfs-performance-rehearsal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA8DE57-E94E-ED40-8670-EB740D6A4089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF8DD28-8FC1-2F4D-B53F-AC40A4035F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="2120" windowWidth="32580" windowHeight="24460" activeTab="1" xr2:uid="{2F8600CA-3986-EE4C-91BB-F9BD073B8F74}"/>
+    <workbookView xWindow="7360" yWindow="2120" windowWidth="32580" windowHeight="24460" xr2:uid="{2F8600CA-3986-EE4C-91BB-F9BD073B8F74}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="118">
   <si>
     <t>class_name</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Contemporary</t>
-  </si>
-  <si>
-    <t>Marisa</t>
   </si>
   <si>
     <t>Teen Jazz</t>
@@ -788,8 +785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BBEBB3-3D05-3F4B-827E-9D2E3EA23827}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -806,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -827,7 +825,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1030,7 +1028,7 @@
         <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -1041,10 +1039,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -1055,10 +1053,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1069,10 +1067,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -1083,10 +1081,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -1097,13 +1095,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>57</v>
       </c>
       <c r="E25" s="1">
         <v>0.65625</v>
@@ -1111,13 +1109,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
         <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>57</v>
       </c>
       <c r="E26" s="1">
         <v>0.77083333333333337</v>
@@ -1125,13 +1123,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
         <v>56</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
       </c>
       <c r="E27" s="1">
         <v>0.8125</v>
@@ -1139,10 +1137,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
         <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>61</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
@@ -1153,13 +1151,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="1">
         <v>0.77083333333333337</v>
@@ -1167,13 +1165,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
         <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
       </c>
       <c r="E30" s="1">
         <v>0.39583333333333331</v>
@@ -1181,13 +1179,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1">
         <v>0.44791666666666669</v>
@@ -1198,13 +1196,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1">
         <v>0.4375</v>
@@ -1215,13 +1213,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
         <v>69</v>
       </c>
-      <c r="C33" t="s">
-        <v>70</v>
-      </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="1">
         <v>0.55208333333333337</v>
@@ -1232,13 +1230,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="1">
         <v>0.5</v>
@@ -1249,10 +1247,10 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="1">
         <v>0.375</v>
@@ -1263,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
         <v>34</v>
@@ -1277,7 +1275,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
@@ -1288,10 +1286,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
@@ -1302,10 +1300,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
         <v>34</v>
@@ -1319,7 +1317,7 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
         <v>34</v>
@@ -1333,10 +1331,10 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="1">
         <v>0.63541666666666663</v>
@@ -1344,10 +1342,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
         <v>31</v>
@@ -1358,7 +1356,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
@@ -1377,13 +1375,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
         <v>56</v>
-      </c>
-      <c r="D45" t="s">
-        <v>57</v>
       </c>
       <c r="E45" s="1">
         <v>0.69791666666666663</v>
@@ -1391,7 +1389,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
@@ -1405,12 +1403,12 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1422,8 +1420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68AC5E-2942-7D46-915F-1C0B141C9C75}">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100:D101"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1436,49 +1435,50 @@
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" t="s">
-        <v>91</v>
+      <c r="I1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2">
         <v>45780</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1493,18 +1493,18 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2">
         <v>45780</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1519,18 +1519,18 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2">
         <v>45780</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1545,18 +1545,18 @@
         <v>0.375</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2">
         <v>45780</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1571,18 +1571,18 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2">
         <v>45780</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -1597,18 +1597,18 @@
         <v>0.40625</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2">
         <v>45780</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -1620,18 +1620,18 @@
         <v>0.44097222222222221</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2">
         <v>45780</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1643,21 +1643,21 @@
         <v>0.44097222222222221</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2">
         <v>45780</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -1669,21 +1669,21 @@
         <v>0.44097222222222221</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2">
         <v>45780</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1695,21 +1695,21 @@
         <v>0.44097222222222221</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2">
         <v>45780</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1721,21 +1721,21 @@
         <v>0.44097222222222221</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2">
         <v>45780</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -1747,21 +1747,21 @@
         <v>0.44097222222222221</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2">
         <v>45780</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -1773,21 +1773,21 @@
         <v>0.44097222222222221</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2">
         <v>45780</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1799,21 +1799,21 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2">
         <v>45780</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1">
         <v>0.4513888888888889</v>
@@ -1822,18 +1822,18 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2">
         <v>45780</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -1846,18 +1846,18 @@
       </c>
       <c r="H16" s="1"/>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="2">
         <v>45780</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -1872,18 +1872,18 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="J17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="2">
         <v>45780</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1895,24 +1895,24 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2">
         <v>45780</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="1">
         <v>0.46875</v>
@@ -1921,21 +1921,21 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="2">
         <v>45780</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1947,21 +1947,21 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2">
         <v>45780</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
@@ -1973,21 +1973,21 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="2">
         <v>45780</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -2002,18 +2002,18 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="2">
         <v>45780</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -2028,21 +2028,21 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="J23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2">
         <v>45780</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="1">
         <v>0.5</v>
@@ -2051,18 +2051,18 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="2">
         <v>45780</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -2074,18 +2074,18 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="J25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2">
         <v>45780</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -2097,21 +2097,21 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="I26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2">
         <v>45780</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -2123,24 +2123,24 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="2">
         <v>45780</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="1">
         <v>0.51736111111111116</v>
@@ -2149,21 +2149,21 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="I28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2">
         <v>45780</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -2175,21 +2175,21 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="I29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="2">
         <v>45780</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -2201,21 +2201,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2">
         <v>45780</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
@@ -2227,21 +2227,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="2">
         <v>45780</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -2253,21 +2253,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="2">
         <v>45780</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2279,21 +2279,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2">
         <v>45780</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -2305,21 +2305,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2">
         <v>45780</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -2331,21 +2331,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2">
         <v>45780</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -2357,24 +2357,24 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2">
         <v>45780</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F37" s="1">
         <v>0.55208333333333337</v>
@@ -2383,21 +2383,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2">
         <v>45780</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -2409,21 +2409,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2">
         <v>45780</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
@@ -2435,21 +2435,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2">
         <v>45780</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -2461,21 +2461,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2">
         <v>45780</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -2487,24 +2487,24 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2">
         <v>45780</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42" s="1">
         <v>0.55208333333333337</v>
@@ -2513,21 +2513,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2">
         <v>45780</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -2539,21 +2539,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2">
         <v>45780</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -2565,21 +2565,21 @@
         <v>0.625</v>
       </c>
       <c r="I44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2">
         <v>45780</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -2591,21 +2591,21 @@
         <v>0.625</v>
       </c>
       <c r="I45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2">
         <v>45780</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -2617,21 +2617,21 @@
         <v>0.625</v>
       </c>
       <c r="I46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2">
         <v>45780</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2643,21 +2643,21 @@
         <v>0.625</v>
       </c>
       <c r="I47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2">
         <v>45780</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -2669,21 +2669,21 @@
         <v>0.625</v>
       </c>
       <c r="I48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2">
         <v>45780</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -2695,21 +2695,21 @@
         <v>0.625</v>
       </c>
       <c r="I49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2">
         <v>45780</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -2721,24 +2721,24 @@
         <v>0.625</v>
       </c>
       <c r="I50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2">
         <v>45780</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F51" s="1">
         <v>0.58333333333333337</v>
@@ -2747,21 +2747,21 @@
         <v>0.625</v>
       </c>
       <c r="I51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2">
         <v>45780</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
@@ -2773,21 +2773,21 @@
         <v>0.625</v>
       </c>
       <c r="I52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2">
         <v>45780</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
@@ -2799,21 +2799,21 @@
         <v>0.625</v>
       </c>
       <c r="I53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2">
         <v>45780</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
@@ -2825,21 +2825,21 @@
         <v>0.625</v>
       </c>
       <c r="I54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2">
         <v>45780</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
@@ -2851,24 +2851,24 @@
         <v>0.625</v>
       </c>
       <c r="I55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2">
         <v>45780</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F56" s="1">
         <v>0.58333333333333337</v>
@@ -2877,21 +2877,21 @@
         <v>0.625</v>
       </c>
       <c r="I56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2">
         <v>45780</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
@@ -2903,21 +2903,21 @@
         <v>0.625</v>
       </c>
       <c r="I57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2">
         <v>45788</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -2929,18 +2929,18 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="J58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2">
         <v>45788</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
@@ -2952,18 +2952,18 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2">
         <v>45788</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -2975,18 +2975,18 @@
         <v>0.4375</v>
       </c>
       <c r="J60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2">
         <v>45788</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -2998,18 +2998,18 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="J61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2">
         <v>45788</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -3021,18 +3021,18 @@
         <v>0.46875</v>
       </c>
       <c r="J62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2">
         <v>45788</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
@@ -3044,18 +3044,18 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="J63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2">
         <v>45788</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -3067,18 +3067,18 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="J64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2">
         <v>45788</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
@@ -3090,18 +3090,18 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="J65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2">
         <v>45788</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -3113,18 +3113,18 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="J66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2">
         <v>45788</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -3136,18 +3136,18 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="J67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2">
         <v>45788</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -3159,18 +3159,18 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="J68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2">
         <v>45788</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -3182,18 +3182,18 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="J69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2">
         <v>45788</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
@@ -3205,18 +3205,18 @@
         <v>0.53125</v>
       </c>
       <c r="J70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2">
         <v>45788</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
         <v>6</v>
@@ -3228,21 +3228,21 @@
         <v>0.53125</v>
       </c>
       <c r="I71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2">
         <v>45788</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -3254,21 +3254,21 @@
         <v>0.53125</v>
       </c>
       <c r="I72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2">
         <v>45788</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -3280,18 +3280,18 @@
         <v>0.53125</v>
       </c>
       <c r="J73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2">
         <v>45788</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
@@ -3303,21 +3303,21 @@
         <v>0.53125</v>
       </c>
       <c r="I74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2">
         <v>45788</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -3329,18 +3329,18 @@
         <v>0.53125</v>
       </c>
       <c r="J75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2">
         <v>45788</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
@@ -3352,21 +3352,21 @@
         <v>0.53125</v>
       </c>
       <c r="J76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2">
         <v>45788</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F77" s="1">
         <v>0.49305555555555558</v>
@@ -3375,18 +3375,18 @@
         <v>0.53125</v>
       </c>
       <c r="J77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2">
         <v>45788</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
@@ -3398,18 +3398,18 @@
         <v>0.53125</v>
       </c>
       <c r="J78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2">
         <v>45788</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
@@ -3421,18 +3421,18 @@
         <v>0.53125</v>
       </c>
       <c r="J79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2">
         <v>45788</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
@@ -3444,18 +3444,18 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="J80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2">
         <v>45788</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D81" t="s">
         <v>11</v>
@@ -3467,21 +3467,21 @@
         <v>0.59375</v>
       </c>
       <c r="J81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2">
         <v>45788</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F82" s="1">
         <v>0.58333333333333337</v>
@@ -3490,18 +3490,18 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="J82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2">
         <v>45788</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -3513,18 +3513,18 @@
         <v>0.625</v>
       </c>
       <c r="J83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2">
         <v>45788</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
@@ -3536,21 +3536,21 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="I84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2">
         <v>45788</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
         <v>11</v>
@@ -3562,21 +3562,21 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="J85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2">
         <v>45788</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F86" s="1">
         <v>0.625</v>
@@ -3585,18 +3585,18 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="J86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2">
         <v>45788</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
@@ -3608,21 +3608,21 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="I87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2">
         <v>45788</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -3634,24 +3634,24 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="I88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>45788</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F89" s="1">
         <v>0.6875</v>
@@ -3660,21 +3660,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="I89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2">
         <v>45788</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D90" t="s">
         <v>15</v>
@@ -3686,21 +3686,21 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2">
         <v>45788</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D91" t="s">
         <v>16</v>
@@ -3712,21 +3712,21 @@
         <v>0.75</v>
       </c>
       <c r="I91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2">
         <v>45788</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
@@ -3738,24 +3738,24 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="I92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B93" s="2">
         <v>45788</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F93" s="1">
         <v>0.75</v>
@@ -3764,21 +3764,21 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="I93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94" s="2">
         <v>45788</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
@@ -3790,21 +3790,21 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="I94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95" s="2">
         <v>45788</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
@@ -3816,27 +3816,27 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="I95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B96" s="2">
         <v>45788</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F96" s="1">
         <v>0.77083333333333337</v>
@@ -3845,24 +3845,24 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="J96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B97" s="2">
         <v>45788</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F97" s="1">
         <v>0.79166666666666663</v>
@@ -3871,24 +3871,24 @@
         <v>0.8125</v>
       </c>
       <c r="J97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B98" s="2">
         <v>45788</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E98" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F98" s="1">
         <v>0.8125</v>
@@ -3897,18 +3897,18 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="J98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B99" s="2">
         <v>45788</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
@@ -3920,24 +3920,24 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="J99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B100" s="2">
         <v>45788</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F100" s="1">
         <v>0.85416666666666663</v>
@@ -3946,24 +3946,24 @@
         <v>0.875</v>
       </c>
       <c r="J100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B101" s="2">
         <v>45788</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F101" s="1">
         <v>0.875</v>
@@ -3972,18 +3972,18 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="J101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B102" s="2">
         <v>45789</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D102" t="s">
         <v>37</v>
@@ -3995,21 +3995,21 @@
         <v>0.6875</v>
       </c>
       <c r="I102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B103" s="2">
         <v>45789</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D103" t="s">
         <v>39</v>
@@ -4021,21 +4021,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="I103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J103" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B104" s="2">
         <v>45789</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D104" t="s">
         <v>40</v>
@@ -4047,21 +4047,21 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J104" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B105" s="2">
         <v>45789</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D105" t="s">
         <v>41</v>
@@ -4073,21 +4073,21 @@
         <v>0.75</v>
       </c>
       <c r="I105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J105" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B106" s="2">
         <v>45789</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D106" t="s">
         <v>43</v>
@@ -4099,27 +4099,27 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="I106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B107" s="2">
         <v>45789</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F107" s="1">
         <v>0.76041666666666663</v>
@@ -4128,27 +4128,27 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="I107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B108" s="2">
         <v>45789</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F108" s="1">
         <v>0.80555555555555558</v>
@@ -4157,27 +4157,27 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="I108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B109" s="2">
         <v>45789</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F109" s="1">
         <v>0.83333333333333337</v>
@@ -4186,27 +4186,27 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="I109" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B110" s="2">
         <v>45789</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F110" s="1">
         <v>0.85416666666666663</v>
@@ -4215,27 +4215,27 @@
         <v>0.875</v>
       </c>
       <c r="I110" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B111" s="2">
         <v>45789</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F111" s="1">
         <v>0.875</v>
@@ -4244,21 +4244,21 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="I111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B112" s="2">
         <v>45789</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D112" t="s">
         <v>44</v>
@@ -4270,24 +4270,24 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="I112" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B113" s="2">
         <v>45790</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F113" s="1">
         <v>0.65625</v>
@@ -4296,24 +4296,24 @@
         <v>0.6875</v>
       </c>
       <c r="I113" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J113" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B114" s="2">
         <v>45790</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D114" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F114" s="1">
         <v>0.67708333333333337</v>
@@ -4322,24 +4322,24 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="I114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B115" s="2">
         <v>45790</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F115" s="1">
         <v>0.69791666666666663</v>
@@ -4348,24 +4348,24 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I115" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J115" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B116" s="2">
         <v>45790</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F116" s="1">
         <v>0.71875</v>
@@ -4374,24 +4374,24 @@
         <v>0.75</v>
       </c>
       <c r="I116" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J116" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B117" s="2">
         <v>45790</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F117" s="1">
         <v>0.76041666666666663</v>
@@ -4400,24 +4400,24 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="I117" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J117" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B118" s="2">
         <v>45790</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D118" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F118" s="1">
         <v>0.78125</v>
@@ -4426,24 +4426,24 @@
         <v>0.8125</v>
       </c>
       <c r="I118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B119" s="2">
         <v>45790</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D119" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F119" s="1">
         <v>0.80208333333333337</v>
@@ -4452,24 +4452,24 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="I119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B120" s="2">
         <v>45790</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D120" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F120" s="1">
         <v>0.82291666666666663</v>
@@ -4478,27 +4478,27 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="I120" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B121" s="2">
         <v>45790</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E121" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F121" s="1">
         <v>0.84375</v>
@@ -4507,24 +4507,24 @@
         <v>0.875</v>
       </c>
       <c r="I121" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B122" s="2">
         <v>45790</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D122" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F122" s="1">
         <v>0.86458333333333337</v>
@@ -4533,24 +4533,24 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="I122" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J122" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B123" s="2">
         <v>45790</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D123" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F123" s="1">
         <v>0.88541666666666663</v>
@@ -4559,21 +4559,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="I123" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J123" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B124" s="2">
         <v>45791</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D124" t="s">
         <v>18</v>
@@ -4585,21 +4585,21 @@
         <v>0.6875</v>
       </c>
       <c r="I124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J124" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B125" s="2">
         <v>45791</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D125" t="s">
         <v>21</v>
@@ -4611,21 +4611,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="I125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J125" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B126" s="2">
         <v>45791</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D126" t="s">
         <v>22</v>
@@ -4637,21 +4637,21 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I126" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J126" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B127" s="2">
         <v>45791</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D127" t="s">
         <v>24</v>
@@ -4663,21 +4663,21 @@
         <v>0.75</v>
       </c>
       <c r="I127" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J127" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B128" s="2">
         <v>45791</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D128" t="s">
         <v>27</v>
@@ -4689,21 +4689,21 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="I128" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J128" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B129" s="2">
         <v>45791</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D129" t="s">
         <v>29</v>
@@ -4715,21 +4715,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="I129" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J129" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B130" s="2">
         <v>45791</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D130" t="s">
         <v>32</v>
@@ -4741,21 +4741,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="I130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B131" s="2">
         <v>45791</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D131" t="s">
         <v>35</v>
@@ -4767,24 +4767,24 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="I131" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B132" s="2">
         <v>45791</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D132" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F132" s="1">
         <v>0.84375</v>
@@ -4793,24 +4793,24 @@
         <v>0.875</v>
       </c>
       <c r="I132" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J132" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B133" s="2">
         <v>45791</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F133" s="1">
         <v>0.86458333333333337</v>
@@ -4819,27 +4819,27 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="I133" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J133" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B134" s="2">
         <v>45791</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E134" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F134" s="1">
         <v>0.89583333333333337</v>
@@ -4848,21 +4848,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="I134" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B135" s="2">
         <v>45792</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>7</v>
@@ -4878,21 +4878,21 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="I135" t="s">
+        <v>102</v>
+      </c>
+      <c r="J135" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B136" s="2">
         <v>45792</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>13</v>
@@ -4908,21 +4908,21 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="I136" t="s">
+        <v>102</v>
+      </c>
+      <c r="J136" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B137" s="2">
         <v>45792</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>5</v>
@@ -4938,21 +4938,21 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="I137" t="s">
+        <v>102</v>
+      </c>
+      <c r="J137" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B138" s="2">
         <v>45792</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D138" t="s">
         <v>4</v>
@@ -4967,21 +4967,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="I138" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B139" s="2">
         <v>45792</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D139" t="s">
         <v>10</v>
@@ -4996,21 +4996,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="I139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B140" s="2">
         <v>45792</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D140" t="s">
         <v>6</v>
@@ -5025,21 +5025,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="I140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B141" s="2">
         <v>45792</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D141" t="s">
         <v>16</v>
@@ -5054,21 +5054,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="I141" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B142" s="2">
         <v>45792</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>7</v>
@@ -5081,21 +5081,21 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="I142" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B143" s="2">
         <v>45792</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>13</v>
@@ -5108,21 +5108,21 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="I143" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B144" s="2">
         <v>45792</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>5</v>
@@ -5135,10 +5135,10 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="I144" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsp/Documents/GitHub/cdfs-performance-rehearsal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF8DD28-8FC1-2F4D-B53F-AC40A4035F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669ED2BA-F786-174E-B728-89D05E9AC524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="2120" windowWidth="32580" windowHeight="24460" xr2:uid="{2F8600CA-3986-EE4C-91BB-F9BD073B8F74}"/>
+    <workbookView xWindow="7420" yWindow="2360" windowWidth="32580" windowHeight="21100" activeTab="1" xr2:uid="{2F8600CA-3986-EE4C-91BB-F9BD073B8F74}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -785,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BBEBB3-3D05-3F4B-827E-9D2E3EA23827}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68AC5E-2942-7D46-915F-1C0B141C9C75}">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1430,11 +1430,12 @@
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="5" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="66" customWidth="1"/>
     <col min="10" max="10" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsp/Documents/GitHub/cdfs-performance-rehearsal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669ED2BA-F786-174E-B728-89D05E9AC524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8F3781-6775-4A47-80FB-F4B67AE63651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="2360" windowWidth="32580" windowHeight="21100" activeTab="1" xr2:uid="{2F8600CA-3986-EE4C-91BB-F9BD073B8F74}"/>
+    <workbookView xWindow="9780" yWindow="500" windowWidth="41120" windowHeight="27420" xr2:uid="{2F8600CA-3986-EE4C-91BB-F9BD073B8F74}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
     <sheet name="rehearsals" sheetId="2" r:id="rId2"/>
+    <sheet name="Qs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="127">
   <si>
     <t>class_name</t>
   </si>
@@ -391,6 +392,33 @@
   </si>
   <si>
     <t>Breathe</t>
+  </si>
+  <si>
+    <t>To the Stars: The Ballet Half</t>
+  </si>
+  <si>
+    <t>First Half Friday &amp; Second Half Sunday Performances</t>
+  </si>
+  <si>
+    <t>Second Half Friday &amp; Saturday Performances</t>
+  </si>
+  <si>
+    <t>Review class names</t>
+  </si>
+  <si>
+    <t>Is there a run of show for the Dress Rehearsals, e.g., when does Pre Primary Ballet show up?</t>
+  </si>
+  <si>
+    <t>Should we work on the app or the individual schedules, or both?</t>
+  </si>
+  <si>
+    <t>Class rosters</t>
+  </si>
+  <si>
+    <t>Will need someone to check</t>
+  </si>
+  <si>
+    <t>I can own the databases for this year, but it would be helpful to see how you all store this information</t>
   </si>
 </sst>
 </file>
@@ -785,9 +813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BBEBB3-3D05-3F4B-827E-9D2E3EA23827}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1418,11 +1446,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68AC5E-2942-7D46-915F-1C0B141C9C75}">
-  <dimension ref="A1:J144"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1431,7 +1459,7 @@
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
@@ -4868,7 +4896,9 @@
       <c r="D135" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="2"/>
+      <c r="E135" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F135" s="1">
         <v>0.65625</v>
       </c>
@@ -4898,7 +4928,9 @@
       <c r="D136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E136" s="2"/>
+      <c r="E136" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F136" s="1">
         <v>0.65625</v>
       </c>
@@ -4928,7 +4960,9 @@
       <c r="D137" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E137" s="2"/>
+      <c r="E137" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F137" s="1">
         <v>0.65625</v>
       </c>
@@ -4958,6 +4992,9 @@
       <c r="D138" t="s">
         <v>4</v>
       </c>
+      <c r="E138" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F138" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -4987,6 +5024,9 @@
       <c r="D139" t="s">
         <v>10</v>
       </c>
+      <c r="E139" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F139" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -5016,6 +5056,9 @@
       <c r="D140" t="s">
         <v>6</v>
       </c>
+      <c r="E140" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F140" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -5045,6 +5088,9 @@
       <c r="D141" t="s">
         <v>16</v>
       </c>
+      <c r="E141" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F141" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -5074,7 +5120,9 @@
       <c r="D142" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E142" s="2"/>
+      <c r="E142" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F142" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -5101,7 +5149,9 @@
       <c r="D143" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E143" s="2"/>
+      <c r="E143" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F143" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -5128,7 +5178,9 @@
       <c r="D144" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E144" s="2"/>
+      <c r="E144" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F144" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -5139,6 +5191,893 @@
         <v>104</v>
       </c>
       <c r="J144" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>101</v>
+      </c>
+      <c r="B145" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I145" t="s">
+        <v>104</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>101</v>
+      </c>
+      <c r="B146" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I146" t="s">
+        <v>104</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>101</v>
+      </c>
+      <c r="B147" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I147" t="s">
+        <v>104</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>101</v>
+      </c>
+      <c r="B148" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D148" t="s">
+        <v>52</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>101</v>
+      </c>
+      <c r="B149" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D149" t="s">
+        <v>48</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H149" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>101</v>
+      </c>
+      <c r="B150" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D150" t="s">
+        <v>50</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>101</v>
+      </c>
+      <c r="B151" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D151" t="s">
+        <v>53</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H151" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>101</v>
+      </c>
+      <c r="B152" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D152" t="s">
+        <v>54</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G152" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H152" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>101</v>
+      </c>
+      <c r="B153" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D153" t="s">
+        <v>57</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G153" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>101</v>
+      </c>
+      <c r="B154" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D154" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F154" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>101</v>
+      </c>
+      <c r="B155" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D155" t="s">
+        <v>27</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>101</v>
+      </c>
+      <c r="B156" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D156" t="s">
+        <v>24</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>101</v>
+      </c>
+      <c r="B157" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D157" t="s">
+        <v>32</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>101</v>
+      </c>
+      <c r="B158" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D158" t="s">
+        <v>39</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>101</v>
+      </c>
+      <c r="B159" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D159" t="s">
+        <v>37</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>101</v>
+      </c>
+      <c r="B160" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D160" t="s">
+        <v>29</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G160" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>101</v>
+      </c>
+      <c r="B161" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D161" t="s">
+        <v>46</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G161" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>101</v>
+      </c>
+      <c r="B162" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D162" t="s">
+        <v>45</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G162" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>101</v>
+      </c>
+      <c r="B163" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D163" t="s">
+        <v>43</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="G163" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>101</v>
+      </c>
+      <c r="B164" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D164" t="s">
+        <v>61</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="G164" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>101</v>
+      </c>
+      <c r="B165" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D165" t="s">
+        <v>35</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="G165" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>101</v>
+      </c>
+      <c r="B166" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D166" t="s">
+        <v>59</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="G166" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>101</v>
+      </c>
+      <c r="B167" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D167" t="s">
+        <v>99</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F167" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="G167" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>101</v>
+      </c>
+      <c r="B168" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D168" t="s">
+        <v>100</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F168" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="G168" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>101</v>
+      </c>
+      <c r="B169" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D169" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F169" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="G169" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H169" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>101</v>
+      </c>
+      <c r="B170" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D170" t="s">
+        <v>45</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F170" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="G170" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H170" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>101</v>
+      </c>
+      <c r="B171" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D171" t="s">
+        <v>46</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F171" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="G171" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H171" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>101</v>
+      </c>
+      <c r="B172" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D172" t="s">
+        <v>58</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F172" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="G172" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H172" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J172" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5151,11 +6090,74 @@
           <x14:formula1>
             <xm:f>classes!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D138:D141 D145:D370 D2:D134</xm:sqref>
+          <xm:sqref>D138:D141 D2:D134 D148:D374</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44612047-0F6E-ED4A-9922-366EE1EC8C90}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
